--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D07FDC1-A55B-4FE5-8F64-41B9C4AB6209}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3D07FDC1-A55B-4FE5-8F64-41B9C4AB6209}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="540" windowWidth="26370" windowHeight="11610" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="11610" windowWidth="26370" xWindow="1500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="540"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario1" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario1" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -39,7 +39,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -47,15 +47,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="648">
   <si>
     <t>description</t>
   </si>
@@ -1855,13 +1855,173 @@
   </si>
   <si>
     <t>1-4</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1933,8 +2093,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1951,6 +2325,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1994,147 +2640,249 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="71">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2168,7 +2916,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2193,10 +2941,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2231,7 +2979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2266,7 +3014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2360,21 +3108,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2391,7 +3139,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2443,26 +3191,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2542,25 +3290,28 @@
         <v>565</v>
       </c>
       <c r="AA1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -2640,25 +3391,28 @@
         <v>569</v>
       </c>
       <c r="AA2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -2729,25 +3483,28 @@
         <v>570</v>
       </c>
       <c r="AA3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -2815,25 +3572,28 @@
         <v>571</v>
       </c>
       <c r="AA4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB4" t="s">
         <v>548</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>539</v>
       </c>
@@ -2889,25 +3649,28 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB5" t="s">
         <v>542</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>559</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2960,25 +3723,28 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>434</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3022,25 +3788,28 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>435</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3084,25 +3853,28 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3143,19 +3915,22 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3187,19 +3962,22 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB10" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>560</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>342</v>
       </c>
@@ -3225,19 +4003,22 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>602</v>
       </c>
       <c r="AA11" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3263,19 +4044,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -3301,19 +4085,22 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>552</v>
+        <v>245</v>
       </c>
       <c r="AA13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3336,19 +4123,22 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>552</v>
       </c>
       <c r="AA14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>503</v>
       </c>
@@ -3371,19 +4161,22 @@
         <v>491</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB15" t="s">
         <v>572</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>468</v>
       </c>
@@ -3406,19 +4199,22 @@
         <v>492</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB16" t="s">
         <v>553</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3435,19 +4231,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>456</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3463,19 +4262,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>248</v>
+      </c>
       <c r="AA18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>596</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -3484,18 +4289,21 @@
         <v>445</v>
       </c>
       <c r="AA19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB19" t="s">
         <v>493</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>597</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -3504,18 +4312,21 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>598</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -3524,18 +4335,21 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>529</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -3544,18 +4358,21 @@
         <v>545</v>
       </c>
       <c r="AA22" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -3564,18 +4381,21 @@
         <v>462</v>
       </c>
       <c r="AA23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -3584,18 +4404,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB24" t="s">
         <v>474</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>599</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -3604,946 +4427,1039 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>565</v>
       </c>
       <c r="F26" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="AA26" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB26" t="s">
         <v>533</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>595</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AA27" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>460</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA29" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>460</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>461</v>
       </c>
       <c r="H34" t="s">
         <v>499</v>
       </c>
       <c r="AA34" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB36" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>530</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>600</v>
+      </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>531</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>518</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>500</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AA81" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AA86" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>519</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AA90" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AA91" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AA93" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AA96" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AA97" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O975"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P975"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="10.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="49" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="23.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="9" width="10.625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="22" width="49.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +5490,7 @@
       <c r="N1" s="32"/>
       <c r="O1" s="33"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4593,7 +5509,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="5"/>
       <c r="C3" s="11"/>
@@ -4610,7 +5526,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>217</v>
       </c>
@@ -4655,7 +5571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>593</v>
       </c>
@@ -4675,13 +5591,14 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
+      <c r="J5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="14"/>
       <c r="M5" s="11"/>
       <c r="N5" s="14"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>575</v>
       </c>
@@ -4708,7 +5625,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="5"/>
       <c r="C7" s="12" t="s">
@@ -4733,7 +5650,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="5"/>
       <c r="C8" s="12" t="s">
@@ -4758,7 +5675,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="5"/>
       <c r="C9" s="12" t="s">
@@ -4783,7 +5700,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>582</v>
       </c>
@@ -4810,7 +5727,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="5"/>
       <c r="C11" s="12" t="s">
@@ -4835,7 +5752,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="5"/>
       <c r="C12" s="12" t="s">
@@ -4860,7 +5777,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="5"/>
       <c r="C13" s="12" t="s">
@@ -4885,7 +5802,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>586</v>
       </c>
@@ -4912,7 +5829,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="5"/>
       <c r="C15" s="12" t="s">
@@ -4937,7 +5854,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="5"/>
       <c r="C16" s="12" t="s">
@@ -4962,7 +5879,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="5"/>
       <c r="C17" s="12" t="s">
@@ -4987,7 +5904,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>587</v>
       </c>
@@ -5014,7 +5931,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="5"/>
       <c r="C19" s="12" t="s">
@@ -5039,7 +5956,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="5"/>
       <c r="C20" s="12" t="s">
@@ -5064,7 +5981,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
@@ -5089,7 +6006,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="5"/>
       <c r="C22" s="12"/>
@@ -5106,7 +6023,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="5"/>
       <c r="C23" s="12"/>
@@ -5123,7 +6040,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="5"/>
       <c r="C24" s="12"/>
@@ -5140,7 +6057,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="5"/>
       <c r="C25" s="12"/>
@@ -5157,7 +6074,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="5"/>
       <c r="C26" s="12"/>
@@ -5174,7 +6091,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="5"/>
       <c r="C27" s="12"/>
@@ -5191,7 +6108,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="5"/>
       <c r="C28" s="12"/>
@@ -5208,7 +6125,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="5"/>
       <c r="C29" s="12"/>
@@ -5225,7 +6142,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="5"/>
       <c r="C30" s="12"/>
@@ -5242,7 +6159,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="5"/>
       <c r="C31" s="12"/>
@@ -5259,7 +6176,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="5"/>
       <c r="C32" s="12"/>
@@ -5276,7 +6193,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
@@ -5293,7 +6210,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
@@ -5310,7 +6227,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
@@ -5327,7 +6244,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="5"/>
       <c r="C36" s="12"/>
@@ -5344,7 +6261,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="5"/>
       <c r="C37" s="12"/>
@@ -5361,7 +6278,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="5"/>
       <c r="C38" s="12"/>
@@ -5378,7 +6295,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="5"/>
       <c r="C39" s="12"/>
@@ -5395,7 +6312,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="5"/>
       <c r="C40" s="12"/>
@@ -5412,7 +6329,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="5"/>
       <c r="C41" s="12"/>
@@ -5429,7 +6346,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="5"/>
       <c r="C42" s="12"/>
@@ -5446,7 +6363,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="5"/>
       <c r="C43" s="12"/>
@@ -5463,7 +6380,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="5"/>
       <c r="C44" s="12"/>
@@ -5480,7 +6397,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="5"/>
       <c r="C45" s="12"/>
@@ -5497,7 +6414,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="5"/>
       <c r="C46" s="12"/>
@@ -5514,7 +6431,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="5"/>
       <c r="C47" s="12"/>
@@ -5531,7 +6448,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="5"/>
       <c r="C48" s="12"/>
@@ -5548,7 +6465,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="5"/>
       <c r="C49" s="12"/>
@@ -5565,7 +6482,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="5"/>
       <c r="C50" s="12"/>
@@ -5582,7 +6499,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="5"/>
       <c r="C51" s="12"/>
@@ -5599,7 +6516,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="5"/>
       <c r="C52" s="12"/>
@@ -5616,7 +6533,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="5"/>
       <c r="C53" s="12"/>
@@ -5633,7 +6550,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="5"/>
       <c r="C54" s="12"/>
@@ -5650,7 +6567,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="5"/>
       <c r="C55" s="12"/>
@@ -5667,7 +6584,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="5"/>
       <c r="C56" s="12"/>
@@ -5684,7 +6601,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="5"/>
       <c r="C57" s="12"/>
@@ -5701,7 +6618,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="5"/>
       <c r="C58" s="12"/>
@@ -5718,7 +6635,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="5"/>
       <c r="C59" s="12"/>
@@ -5735,7 +6652,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="5"/>
       <c r="C60" s="12"/>
@@ -5752,7 +6669,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="5"/>
       <c r="C61" s="12"/>
@@ -5769,7 +6686,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="5"/>
       <c r="C62" s="12"/>
@@ -5786,7 +6703,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="5"/>
       <c r="C63" s="12"/>
@@ -5803,7 +6720,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="5"/>
       <c r="C64" s="12"/>
@@ -5820,7 +6737,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="5"/>
       <c r="C65" s="12"/>
@@ -5837,7 +6754,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="5"/>
       <c r="C66" s="12"/>
@@ -5854,7 +6771,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="5"/>
       <c r="C67" s="12"/>
@@ -5871,7 +6788,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="5"/>
       <c r="C68" s="12"/>
@@ -5888,7 +6805,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="5"/>
       <c r="C69" s="12"/>
@@ -5905,7 +6822,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="5"/>
       <c r="C70" s="12"/>
@@ -5922,7 +6839,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="5"/>
       <c r="C71" s="12"/>
@@ -5939,7 +6856,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="5"/>
       <c r="C72" s="12"/>
@@ -5956,7 +6873,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="5"/>
       <c r="C73" s="12"/>
@@ -5973,7 +6890,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="5"/>
       <c r="C74" s="12"/>
@@ -5990,7 +6907,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="5"/>
       <c r="C75" s="12"/>
@@ -6007,7 +6924,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="5"/>
       <c r="C76" s="12"/>
@@ -6024,7 +6941,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="5"/>
       <c r="C77" s="12"/>
@@ -6041,7 +6958,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="5"/>
       <c r="C78" s="12"/>
@@ -6058,7 +6975,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="5"/>
       <c r="C79" s="12"/>
@@ -6075,7 +6992,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="5"/>
       <c r="C80" s="12"/>
@@ -6092,7 +7009,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="5"/>
       <c r="C81" s="12"/>
@@ -6109,7 +7026,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="5"/>
       <c r="C82" s="12"/>
@@ -6126,7 +7043,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="5"/>
       <c r="C83" s="12"/>
@@ -6143,7 +7060,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="5"/>
       <c r="C84" s="12"/>
@@ -6160,7 +7077,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="5"/>
       <c r="C85" s="12"/>
@@ -6177,7 +7094,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="5"/>
       <c r="C86" s="12"/>
@@ -6194,7 +7111,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="5"/>
       <c r="C87" s="12"/>
@@ -6211,7 +7128,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="5"/>
       <c r="C88" s="12"/>
@@ -6228,7 +7145,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="5"/>
       <c r="C89" s="12"/>
@@ -6245,7 +7162,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="5"/>
       <c r="C90" s="12"/>
@@ -6262,7 +7179,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="5"/>
       <c r="C91" s="12"/>
@@ -6279,7 +7196,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="5"/>
       <c r="C92" s="12"/>
@@ -6296,7 +7213,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="5"/>
       <c r="C93" s="12"/>
@@ -6313,7 +7230,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="5"/>
       <c r="C94" s="12"/>
@@ -6330,7 +7247,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="5"/>
       <c r="C95" s="12"/>
@@ -6347,7 +7264,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="5"/>
       <c r="C96" s="12"/>
@@ -6364,7 +7281,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="5"/>
       <c r="C97" s="12"/>
@@ -6381,7 +7298,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="5"/>
       <c r="C98" s="12"/>
@@ -6398,7 +7315,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="5"/>
       <c r="C99" s="12"/>
@@ -6415,7 +7332,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="5"/>
       <c r="C100" s="12"/>
@@ -6432,7 +7349,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="5"/>
       <c r="C101" s="12"/>
@@ -6449,7 +7366,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="5"/>
       <c r="C102" s="12"/>
@@ -6466,7 +7383,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="5"/>
       <c r="C103" s="12"/>
@@ -6483,7 +7400,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="5"/>
       <c r="C104" s="12"/>
@@ -6500,7 +7417,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="5"/>
       <c r="C105" s="12"/>
@@ -6517,7 +7434,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="5"/>
       <c r="C106" s="12"/>
@@ -6534,7 +7451,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="5"/>
       <c r="C107" s="12"/>
@@ -6551,7 +7468,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="5"/>
       <c r="C108" s="12"/>
@@ -6568,7 +7485,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="5"/>
       <c r="C109" s="12"/>
@@ -6585,7 +7502,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="5"/>
       <c r="C110" s="12"/>
@@ -6602,7 +7519,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="5"/>
       <c r="C111" s="12"/>
@@ -6619,7 +7536,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="5"/>
       <c r="C112" s="12"/>
@@ -6636,7 +7553,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="5"/>
       <c r="C113" s="12"/>
@@ -6653,7 +7570,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="5"/>
       <c r="C114" s="12"/>
@@ -6670,7 +7587,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="5"/>
       <c r="C115" s="12"/>
@@ -6687,7 +7604,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="5"/>
       <c r="C116" s="12"/>
@@ -6704,7 +7621,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="5"/>
       <c r="C117" s="12"/>
@@ -6721,7 +7638,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="5"/>
       <c r="C118" s="12"/>
@@ -6738,7 +7655,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="5"/>
       <c r="C119" s="12"/>
@@ -6755,7 +7672,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="5"/>
       <c r="C120" s="12"/>
@@ -6772,7 +7689,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="5"/>
       <c r="C121" s="12"/>
@@ -6789,7 +7706,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="5"/>
       <c r="C122" s="12"/>
@@ -6806,7 +7723,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="5"/>
       <c r="C123" s="12"/>
@@ -6823,7 +7740,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="5"/>
       <c r="C124" s="12"/>
@@ -6840,7 +7757,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="5"/>
       <c r="C125" s="12"/>
@@ -6857,7 +7774,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="5"/>
       <c r="C126" s="12"/>
@@ -6874,7 +7791,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="5"/>
       <c r="C127" s="12"/>
@@ -6891,7 +7808,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="5"/>
       <c r="C128" s="12"/>
@@ -6908,7 +7825,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="5"/>
       <c r="C129" s="12"/>
@@ -6925,7 +7842,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="5"/>
       <c r="C130" s="12"/>
@@ -6942,7 +7859,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="5"/>
       <c r="C131" s="12"/>
@@ -6959,7 +7876,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="5"/>
       <c r="C132" s="12"/>
@@ -6976,7 +7893,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="5"/>
       <c r="C133" s="12"/>
@@ -6993,7 +7910,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="5"/>
       <c r="C134" s="12"/>
@@ -7010,7 +7927,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="5"/>
       <c r="C135" s="12"/>
@@ -7027,7 +7944,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="5"/>
       <c r="C136" s="12"/>
@@ -7044,7 +7961,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="5"/>
       <c r="C137" s="12"/>
@@ -7061,7 +7978,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="5"/>
       <c r="C138" s="12"/>
@@ -7078,7 +7995,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="5"/>
       <c r="C139" s="12"/>
@@ -7095,7 +8012,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="5"/>
       <c r="C140" s="12"/>
@@ -7112,7 +8029,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="5"/>
       <c r="C141" s="12"/>
@@ -7129,7 +8046,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="5"/>
       <c r="C142" s="12"/>
@@ -7146,7 +8063,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="5"/>
       <c r="C143" s="12"/>
@@ -7163,7 +8080,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="5"/>
       <c r="C144" s="12"/>
@@ -7180,7 +8097,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="5"/>
       <c r="C145" s="12"/>
@@ -7197,7 +8114,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="5"/>
       <c r="C146" s="12"/>
@@ -7214,7 +8131,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="5"/>
       <c r="C147" s="12"/>
@@ -7231,7 +8148,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="5"/>
       <c r="C148" s="12"/>
@@ -7248,7 +8165,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="5"/>
       <c r="C149" s="12"/>
@@ -7265,7 +8182,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="5"/>
       <c r="C150" s="12"/>
@@ -7282,7 +8199,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
       <c r="B151" s="5"/>
       <c r="C151" s="12"/>
@@ -7299,7 +8216,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
       <c r="B152" s="5"/>
       <c r="C152" s="12"/>
@@ -7316,7 +8233,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
       <c r="B153" s="5"/>
       <c r="C153" s="12"/>
@@ -7333,7 +8250,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
       <c r="B154" s="5"/>
       <c r="C154" s="12"/>
@@ -7350,7 +8267,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="5"/>
       <c r="C155" s="12"/>
@@ -7367,7 +8284,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="5"/>
       <c r="C156" s="12"/>
@@ -7384,7 +8301,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
       <c r="B157" s="5"/>
       <c r="C157" s="12"/>
@@ -7401,7 +8318,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="5"/>
       <c r="C158" s="12"/>
@@ -7418,7 +8335,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="5"/>
       <c r="C159" s="12"/>
@@ -7435,7 +8352,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="5"/>
       <c r="C160" s="12"/>
@@ -7452,7 +8369,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
       <c r="B161" s="5"/>
       <c r="C161" s="12"/>
@@ -7469,7 +8386,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
       <c r="B162" s="5"/>
       <c r="C162" s="12"/>
@@ -7486,7 +8403,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="5"/>
       <c r="C163" s="12"/>
@@ -7503,7 +8420,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
       <c r="B164" s="5"/>
       <c r="C164" s="12"/>
@@ -7520,7 +8437,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
       <c r="B165" s="5"/>
       <c r="C165" s="12"/>
@@ -7537,7 +8454,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="5"/>
       <c r="C166" s="12"/>
@@ -7554,7 +8471,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="5"/>
       <c r="C167" s="12"/>
@@ -7571,7 +8488,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="26"/>
       <c r="B168" s="5"/>
       <c r="C168" s="12"/>
@@ -7588,7 +8505,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="26"/>
       <c r="B169" s="5"/>
       <c r="C169" s="12"/>
@@ -7605,7 +8522,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="26"/>
       <c r="B170" s="5"/>
       <c r="C170" s="12"/>
@@ -7622,7 +8539,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="26"/>
       <c r="B171" s="5"/>
       <c r="C171" s="12"/>
@@ -7639,7 +8556,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="26"/>
       <c r="B172" s="5"/>
       <c r="C172" s="12"/>
@@ -7656,7 +8573,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="26"/>
       <c r="B173" s="5"/>
       <c r="C173" s="12"/>
@@ -7673,7 +8590,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="26"/>
       <c r="B174" s="5"/>
       <c r="C174" s="12"/>
@@ -7690,7 +8607,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="26"/>
       <c r="B175" s="5"/>
       <c r="C175" s="12"/>
@@ -7707,7 +8624,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="26"/>
       <c r="B176" s="5"/>
       <c r="C176" s="12"/>
@@ -7724,7 +8641,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="26"/>
       <c r="B177" s="5"/>
       <c r="C177" s="12"/>
@@ -7741,7 +8658,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="26"/>
       <c r="B178" s="5"/>
       <c r="C178" s="12"/>
@@ -7758,7 +8675,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="5"/>
       <c r="C179" s="12"/>
@@ -7775,7 +8692,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="26"/>
       <c r="B180" s="5"/>
       <c r="C180" s="12"/>
@@ -7792,7 +8709,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="26"/>
       <c r="B181" s="5"/>
       <c r="C181" s="12"/>
@@ -7809,7 +8726,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="26"/>
       <c r="B182" s="5"/>
       <c r="C182" s="12"/>
@@ -7826,7 +8743,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="26"/>
       <c r="B183" s="5"/>
       <c r="C183" s="12"/>
@@ -7843,7 +8760,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="26"/>
       <c r="B184" s="5"/>
       <c r="C184" s="12"/>
@@ -7860,7 +8777,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="26"/>
       <c r="B185" s="5"/>
       <c r="C185" s="12"/>
@@ -7877,7 +8794,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="26"/>
       <c r="B186" s="5"/>
       <c r="C186" s="12"/>
@@ -7894,7 +8811,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="26"/>
       <c r="B187" s="5"/>
       <c r="C187" s="12"/>
@@ -7911,7 +8828,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="26"/>
       <c r="B188" s="5"/>
       <c r="C188" s="12"/>
@@ -7928,7 +8845,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="5"/>
       <c r="C189" s="12"/>
@@ -7945,7 +8862,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="26"/>
       <c r="B190" s="5"/>
       <c r="C190" s="12"/>
@@ -7962,7 +8879,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="26"/>
       <c r="B191" s="5"/>
       <c r="C191" s="12"/>
@@ -7979,7 +8896,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="26"/>
       <c r="B192" s="5"/>
       <c r="C192" s="12"/>
@@ -7996,7 +8913,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="26"/>
       <c r="B193" s="5"/>
       <c r="C193" s="12"/>
@@ -8013,7 +8930,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="26"/>
       <c r="B194" s="5"/>
       <c r="C194" s="12"/>
@@ -8030,7 +8947,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="26"/>
       <c r="B195" s="5"/>
       <c r="C195" s="12"/>
@@ -8047,7 +8964,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="26"/>
       <c r="B196" s="5"/>
       <c r="C196" s="12"/>
@@ -8064,7 +8981,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="26"/>
       <c r="B197" s="5"/>
       <c r="C197" s="12"/>
@@ -8081,7 +8998,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="26"/>
       <c r="B198" s="5"/>
       <c r="C198" s="12"/>
@@ -8098,7 +9015,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="26"/>
       <c r="B199" s="5"/>
       <c r="C199" s="12"/>
@@ -8115,7 +9032,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="26"/>
       <c r="B200" s="5"/>
       <c r="C200" s="12"/>
@@ -8132,7 +9049,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="26"/>
       <c r="B201" s="5"/>
       <c r="C201" s="12"/>
@@ -8149,7 +9066,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="26"/>
       <c r="B202" s="5"/>
       <c r="C202" s="12"/>
@@ -8166,7 +9083,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="26"/>
       <c r="B203" s="5"/>
       <c r="C203" s="12"/>
@@ -8183,7 +9100,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="26"/>
       <c r="B204" s="5"/>
       <c r="C204" s="12"/>
@@ -8200,7 +9117,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="26"/>
       <c r="B205" s="5"/>
       <c r="C205" s="12"/>
@@ -8217,7 +9134,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="5"/>
       <c r="C206" s="12"/>
@@ -8234,7 +9151,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="5"/>
       <c r="C207" s="12"/>
@@ -8251,7 +9168,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="5"/>
       <c r="C208" s="12"/>
@@ -8268,7 +9185,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="5"/>
       <c r="C209" s="12"/>
@@ -8285,7 +9202,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="5"/>
       <c r="C210" s="12"/>
@@ -8302,7 +9219,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="5"/>
       <c r="C211" s="12"/>
@@ -8319,7 +9236,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="5"/>
       <c r="C212" s="12"/>
@@ -8336,7 +9253,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="5"/>
       <c r="C213" s="12"/>
@@ -8353,7 +9270,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="5"/>
       <c r="C214" s="12"/>
@@ -8370,7 +9287,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="5"/>
       <c r="C215" s="12"/>
@@ -8387,7 +9304,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="5"/>
       <c r="C216" s="12"/>
@@ -8404,7 +9321,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="5"/>
       <c r="C217" s="12"/>
@@ -8421,7 +9338,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="5"/>
       <c r="C218" s="12"/>
@@ -8438,7 +9355,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="5"/>
       <c r="C219" s="12"/>
@@ -8455,7 +9372,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="5"/>
       <c r="C220" s="12"/>
@@ -8472,7 +9389,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="5"/>
       <c r="C221" s="12"/>
@@ -8489,7 +9406,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="5"/>
       <c r="C222" s="12"/>
@@ -8506,7 +9423,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="5"/>
       <c r="C223" s="12"/>
@@ -8523,7 +9440,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="5"/>
       <c r="C224" s="12"/>
@@ -8540,7 +9457,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="5"/>
       <c r="C225" s="12"/>
@@ -8557,7 +9474,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="5"/>
       <c r="C226" s="12"/>
@@ -8574,7 +9491,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="5"/>
       <c r="C227" s="12"/>
@@ -8591,7 +9508,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="5"/>
       <c r="C228" s="12"/>
@@ -8608,7 +9525,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="5"/>
       <c r="C229" s="12"/>
@@ -8625,7 +9542,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="5"/>
       <c r="C230" s="12"/>
@@ -8642,7 +9559,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="5"/>
       <c r="C231" s="12"/>
@@ -8659,7 +9576,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="5"/>
       <c r="C232" s="12"/>
@@ -8676,7 +9593,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="5"/>
       <c r="C233" s="12"/>
@@ -8693,7 +9610,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="5"/>
       <c r="C234" s="12"/>
@@ -8710,7 +9627,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="5"/>
       <c r="C235" s="12"/>
@@ -8727,7 +9644,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="5"/>
       <c r="C236" s="12"/>
@@ -8744,7 +9661,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="5"/>
       <c r="C237" s="12"/>
@@ -8761,7 +9678,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="5"/>
       <c r="C238" s="12"/>
@@ -8778,7 +9695,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="5"/>
       <c r="C239" s="12"/>
@@ -8795,7 +9712,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="5"/>
       <c r="C240" s="12"/>
@@ -8812,7 +9729,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="5"/>
       <c r="C241" s="12"/>
@@ -8829,7 +9746,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="5"/>
       <c r="C242" s="12"/>
@@ -8846,7 +9763,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="5"/>
       <c r="C243" s="12"/>
@@ -8863,7 +9780,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="5"/>
       <c r="C244" s="12"/>
@@ -8880,7 +9797,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="5"/>
       <c r="C245" s="12"/>
@@ -8897,7 +9814,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="5"/>
       <c r="C246" s="12"/>
@@ -8914,7 +9831,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="5"/>
       <c r="C247" s="12"/>
@@ -8931,7 +9848,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="5"/>
       <c r="C248" s="12"/>
@@ -8948,7 +9865,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="5"/>
       <c r="C249" s="12"/>
@@ -8965,7 +9882,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="5"/>
       <c r="C250" s="12"/>
@@ -8982,7 +9899,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="5"/>
       <c r="C251" s="12"/>
@@ -8999,7 +9916,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="5"/>
       <c r="C252" s="12"/>
@@ -9016,7 +9933,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="5"/>
       <c r="C253" s="12"/>
@@ -9033,7 +9950,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="5"/>
       <c r="C254" s="12"/>
@@ -9050,7 +9967,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="5"/>
       <c r="C255" s="12"/>
@@ -9067,7 +9984,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="5"/>
       <c r="C256" s="12"/>
@@ -9084,7 +10001,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="5"/>
       <c r="C257" s="12"/>
@@ -9101,7 +10018,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="26"/>
       <c r="B258" s="5"/>
       <c r="C258" s="12"/>
@@ -9118,7 +10035,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="26"/>
       <c r="B259" s="5"/>
       <c r="C259" s="12"/>
@@ -9135,7 +10052,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="26"/>
       <c r="B260" s="5"/>
       <c r="C260" s="12"/>
@@ -9152,7 +10069,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="26"/>
       <c r="B261" s="5"/>
       <c r="C261" s="12"/>
@@ -9169,7 +10086,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="26"/>
       <c r="B262" s="5"/>
       <c r="C262" s="12"/>
@@ -9186,7 +10103,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="26"/>
       <c r="B263" s="5"/>
       <c r="C263" s="12"/>
@@ -9203,7 +10120,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="26"/>
       <c r="B264" s="5"/>
       <c r="C264" s="12"/>
@@ -9220,7 +10137,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="26"/>
       <c r="B265" s="5"/>
       <c r="C265" s="12"/>
@@ -9237,7 +10154,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="26"/>
       <c r="B266" s="5"/>
       <c r="C266" s="12"/>
@@ -9254,7 +10171,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="26"/>
       <c r="B267" s="5"/>
       <c r="C267" s="12"/>
@@ -9271,7 +10188,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="26"/>
       <c r="B268" s="5"/>
       <c r="C268" s="12"/>
@@ -9288,7 +10205,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="26"/>
       <c r="B269" s="5"/>
       <c r="C269" s="12"/>
@@ -9305,7 +10222,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="26"/>
       <c r="B270" s="5"/>
       <c r="C270" s="12"/>
@@ -9322,7 +10239,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="26"/>
       <c r="B271" s="5"/>
       <c r="C271" s="12"/>
@@ -9339,7 +10256,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="26"/>
       <c r="B272" s="5"/>
       <c r="C272" s="12"/>
@@ -9356,7 +10273,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="26"/>
       <c r="B273" s="5"/>
       <c r="C273" s="12"/>
@@ -9373,7 +10290,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="26"/>
       <c r="B274" s="5"/>
       <c r="C274" s="12"/>
@@ -9390,7 +10307,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="26"/>
       <c r="B275" s="5"/>
       <c r="C275" s="12"/>
@@ -9407,7 +10324,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="26"/>
       <c r="B276" s="5"/>
       <c r="C276" s="12"/>
@@ -9424,7 +10341,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="26"/>
       <c r="B277" s="5"/>
       <c r="C277" s="12"/>
@@ -9441,7 +10358,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="26"/>
       <c r="B278" s="5"/>
       <c r="C278" s="12"/>
@@ -9458,7 +10375,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="26"/>
       <c r="B279" s="5"/>
       <c r="C279" s="12"/>
@@ -9475,7 +10392,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="26"/>
       <c r="B280" s="5"/>
       <c r="C280" s="12"/>
@@ -9492,7 +10409,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="26"/>
       <c r="B281" s="5"/>
       <c r="C281" s="12"/>
@@ -9509,7 +10426,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="26"/>
       <c r="B282" s="5"/>
       <c r="C282" s="12"/>
@@ -9526,7 +10443,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="26"/>
       <c r="B283" s="5"/>
       <c r="C283" s="12"/>
@@ -9543,7 +10460,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="26"/>
       <c r="B284" s="5"/>
       <c r="C284" s="12"/>
@@ -9560,7 +10477,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="26"/>
       <c r="B285" s="5"/>
       <c r="C285" s="12"/>
@@ -9577,7 +10494,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="26"/>
       <c r="B286" s="5"/>
       <c r="C286" s="12"/>
@@ -9594,7 +10511,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="26"/>
       <c r="B287" s="5"/>
       <c r="C287" s="12"/>
@@ -9611,7 +10528,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="26"/>
       <c r="B288" s="5"/>
       <c r="C288" s="12"/>
@@ -9628,7 +10545,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="26"/>
       <c r="B289" s="5"/>
       <c r="C289" s="12"/>
@@ -9645,7 +10562,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="26"/>
       <c r="B290" s="5"/>
       <c r="C290" s="12"/>
@@ -9662,7 +10579,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="26"/>
       <c r="B291" s="5"/>
       <c r="C291" s="12"/>
@@ -9679,7 +10596,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="26"/>
       <c r="B292" s="5"/>
       <c r="C292" s="12"/>
@@ -9696,7 +10613,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="26"/>
       <c r="B293" s="5"/>
       <c r="C293" s="12"/>
@@ -9713,7 +10630,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="26"/>
       <c r="B294" s="5"/>
       <c r="C294" s="12"/>
@@ -9730,7 +10647,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="26"/>
       <c r="B295" s="5"/>
       <c r="C295" s="12"/>
@@ -9747,7 +10664,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="26"/>
       <c r="B296" s="5"/>
       <c r="C296" s="12"/>
@@ -9764,7 +10681,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="26"/>
       <c r="B297" s="5"/>
       <c r="C297" s="12"/>
@@ -9781,7 +10698,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="26"/>
       <c r="B298" s="5"/>
       <c r="C298" s="12"/>
@@ -9798,7 +10715,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="26"/>
       <c r="B299" s="5"/>
       <c r="C299" s="12"/>
@@ -9815,7 +10732,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="26"/>
       <c r="B300" s="5"/>
       <c r="C300" s="12"/>
@@ -9832,7 +10749,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="26"/>
       <c r="B301" s="5"/>
       <c r="C301" s="12"/>
@@ -9849,7 +10766,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="26"/>
       <c r="B302" s="5"/>
       <c r="C302" s="12"/>
@@ -9866,7 +10783,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="26"/>
       <c r="B303" s="5"/>
       <c r="C303" s="12"/>
@@ -9883,7 +10800,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="26"/>
       <c r="B304" s="5"/>
       <c r="C304" s="12"/>
@@ -9900,7 +10817,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="26"/>
       <c r="B305" s="5"/>
       <c r="C305" s="12"/>
@@ -9917,7 +10834,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="26"/>
       <c r="B306" s="5"/>
       <c r="C306" s="12"/>
@@ -9934,7 +10851,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="26"/>
       <c r="B307" s="5"/>
       <c r="C307" s="12"/>
@@ -9951,7 +10868,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="26"/>
       <c r="B308" s="5"/>
       <c r="C308" s="12"/>
@@ -9968,7 +10885,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="26"/>
       <c r="B309" s="5"/>
       <c r="C309" s="12"/>
@@ -9985,7 +10902,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="26"/>
       <c r="B310" s="5"/>
       <c r="C310" s="12"/>
@@ -10002,7 +10919,7 @@
       <c r="N310" s="14"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="26"/>
       <c r="B311" s="5"/>
       <c r="C311" s="12"/>
@@ -10019,7 +10936,7 @@
       <c r="N311" s="14"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="26"/>
       <c r="B312" s="5"/>
       <c r="C312" s="12"/>
@@ -10036,7 +10953,7 @@
       <c r="N312" s="14"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="26"/>
       <c r="B313" s="5"/>
       <c r="C313" s="12"/>
@@ -10053,7 +10970,7 @@
       <c r="N313" s="14"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="26"/>
       <c r="B314" s="5"/>
       <c r="C314" s="12"/>
@@ -10070,7 +10987,7 @@
       <c r="N314" s="14"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="26"/>
       <c r="B315" s="5"/>
       <c r="C315" s="12"/>
@@ -10087,7 +11004,7 @@
       <c r="N315" s="14"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="26"/>
       <c r="B316" s="5"/>
       <c r="C316" s="12"/>
@@ -10104,7 +11021,7 @@
       <c r="N316" s="14"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="26"/>
       <c r="B317" s="5"/>
       <c r="C317" s="12"/>
@@ -10121,7 +11038,7 @@
       <c r="N317" s="14"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="26"/>
       <c r="B318" s="5"/>
       <c r="C318" s="12"/>
@@ -10138,7 +11055,7 @@
       <c r="N318" s="14"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="26"/>
       <c r="B319" s="5"/>
       <c r="C319" s="12"/>
@@ -10155,7 +11072,7 @@
       <c r="N319" s="14"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="26"/>
       <c r="B320" s="5"/>
       <c r="C320" s="12"/>
@@ -10172,7 +11089,7 @@
       <c r="N320" s="14"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="26"/>
       <c r="B321" s="5"/>
       <c r="C321" s="12"/>
@@ -10189,7 +11106,7 @@
       <c r="N321" s="14"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="26"/>
       <c r="B322" s="5"/>
       <c r="C322" s="12"/>
@@ -10206,7 +11123,7 @@
       <c r="N322" s="14"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="26"/>
       <c r="B323" s="5"/>
       <c r="C323" s="12"/>
@@ -10223,7 +11140,7 @@
       <c r="N323" s="14"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="26"/>
       <c r="B324" s="5"/>
       <c r="C324" s="12"/>
@@ -10240,7 +11157,7 @@
       <c r="N324" s="14"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="26"/>
       <c r="B325" s="5"/>
       <c r="C325" s="12"/>
@@ -10257,7 +11174,7 @@
       <c r="N325" s="14"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="26"/>
       <c r="B326" s="5"/>
       <c r="C326" s="12"/>
@@ -10274,7 +11191,7 @@
       <c r="N326" s="14"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="26"/>
       <c r="B327" s="5"/>
       <c r="C327" s="12"/>
@@ -10291,7 +11208,7 @@
       <c r="N327" s="14"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="26"/>
       <c r="B328" s="5"/>
       <c r="C328" s="12"/>
@@ -10308,7 +11225,7 @@
       <c r="N328" s="14"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="26"/>
       <c r="B329" s="5"/>
       <c r="C329" s="12"/>
@@ -10325,7 +11242,7 @@
       <c r="N329" s="14"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="26"/>
       <c r="B330" s="5"/>
       <c r="C330" s="12"/>
@@ -10342,7 +11259,7 @@
       <c r="N330" s="14"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="26"/>
       <c r="B331" s="5"/>
       <c r="C331" s="12"/>
@@ -10359,7 +11276,7 @@
       <c r="N331" s="14"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="26"/>
       <c r="B332" s="5"/>
       <c r="C332" s="12"/>
@@ -10376,7 +11293,7 @@
       <c r="N332" s="14"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="26"/>
       <c r="B333" s="5"/>
       <c r="C333" s="12"/>
@@ -10393,7 +11310,7 @@
       <c r="N333" s="14"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="26"/>
       <c r="B334" s="5"/>
       <c r="C334" s="12"/>
@@ -10410,7 +11327,7 @@
       <c r="N334" s="14"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="26"/>
       <c r="B335" s="5"/>
       <c r="C335" s="12"/>
@@ -10427,7 +11344,7 @@
       <c r="N335" s="14"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="26"/>
       <c r="B336" s="5"/>
       <c r="C336" s="12"/>
@@ -10444,7 +11361,7 @@
       <c r="N336" s="14"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="26"/>
       <c r="B337" s="5"/>
       <c r="C337" s="12"/>
@@ -10461,7 +11378,7 @@
       <c r="N337" s="14"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="26"/>
       <c r="B338" s="5"/>
       <c r="C338" s="12"/>
@@ -10478,7 +11395,7 @@
       <c r="N338" s="14"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="26"/>
       <c r="B339" s="5"/>
       <c r="C339" s="12"/>
@@ -10495,7 +11412,7 @@
       <c r="N339" s="14"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="26"/>
       <c r="B340" s="5"/>
       <c r="C340" s="12"/>
@@ -10512,7 +11429,7 @@
       <c r="N340" s="14"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="26"/>
       <c r="B341" s="5"/>
       <c r="C341" s="12"/>
@@ -10529,7 +11446,7 @@
       <c r="N341" s="14"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="26"/>
       <c r="B342" s="5"/>
       <c r="C342" s="12"/>
@@ -10546,7 +11463,7 @@
       <c r="N342" s="14"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="26"/>
       <c r="B343" s="5"/>
       <c r="C343" s="12"/>
@@ -10563,7 +11480,7 @@
       <c r="N343" s="14"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="26"/>
       <c r="B344" s="5"/>
       <c r="C344" s="12"/>
@@ -10580,7 +11497,7 @@
       <c r="N344" s="14"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="26"/>
       <c r="B345" s="5"/>
       <c r="C345" s="12"/>
@@ -10597,7 +11514,7 @@
       <c r="N345" s="14"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="26"/>
       <c r="B346" s="5"/>
       <c r="C346" s="12"/>
@@ -10614,7 +11531,7 @@
       <c r="N346" s="14"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="26"/>
       <c r="B347" s="5"/>
       <c r="C347" s="12"/>
@@ -10631,7 +11548,7 @@
       <c r="N347" s="14"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="26"/>
       <c r="B348" s="5"/>
       <c r="C348" s="12"/>
@@ -10648,7 +11565,7 @@
       <c r="N348" s="14"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="26"/>
       <c r="B349" s="5"/>
       <c r="C349" s="12"/>
@@ -10665,7 +11582,7 @@
       <c r="N349" s="14"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="26"/>
       <c r="B350" s="5"/>
       <c r="C350" s="12"/>
@@ -10682,7 +11599,7 @@
       <c r="N350" s="14"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="26"/>
       <c r="B351" s="5"/>
       <c r="C351" s="12"/>
@@ -10699,7 +11616,7 @@
       <c r="N351" s="14"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="26"/>
       <c r="B352" s="5"/>
       <c r="C352" s="12"/>
@@ -10716,7 +11633,7 @@
       <c r="N352" s="14"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="26"/>
       <c r="B353" s="5"/>
       <c r="C353" s="12"/>
@@ -10733,7 +11650,7 @@
       <c r="N353" s="14"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="26"/>
       <c r="B354" s="5"/>
       <c r="C354" s="12"/>
@@ -10750,7 +11667,7 @@
       <c r="N354" s="14"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="26"/>
       <c r="B355" s="5"/>
       <c r="C355" s="12"/>
@@ -10767,7 +11684,7 @@
       <c r="N355" s="14"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="26"/>
       <c r="B356" s="5"/>
       <c r="C356" s="12"/>
@@ -10784,7 +11701,7 @@
       <c r="N356" s="14"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="26"/>
       <c r="B357" s="5"/>
       <c r="C357" s="12"/>
@@ -10801,7 +11718,7 @@
       <c r="N357" s="14"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="26"/>
       <c r="B358" s="5"/>
       <c r="C358" s="12"/>
@@ -10818,7 +11735,7 @@
       <c r="N358" s="14"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="26"/>
       <c r="B359" s="5"/>
       <c r="C359" s="12"/>
@@ -10835,7 +11752,7 @@
       <c r="N359" s="14"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="26"/>
       <c r="B360" s="5"/>
       <c r="C360" s="12"/>
@@ -10852,7 +11769,7 @@
       <c r="N360" s="14"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="26"/>
       <c r="B361" s="5"/>
       <c r="C361" s="12"/>
@@ -10869,7 +11786,7 @@
       <c r="N361" s="14"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="26"/>
       <c r="B362" s="5"/>
       <c r="C362" s="12"/>
@@ -10886,7 +11803,7 @@
       <c r="N362" s="14"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="26"/>
       <c r="B363" s="5"/>
       <c r="C363" s="12"/>
@@ -10903,7 +11820,7 @@
       <c r="N363" s="14"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="26"/>
       <c r="B364" s="5"/>
       <c r="C364" s="12"/>
@@ -10920,7 +11837,7 @@
       <c r="N364" s="14"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="26"/>
       <c r="B365" s="5"/>
       <c r="C365" s="12"/>
@@ -10937,7 +11854,7 @@
       <c r="N365" s="14"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="26"/>
       <c r="B366" s="5"/>
       <c r="C366" s="12"/>
@@ -10954,7 +11871,7 @@
       <c r="N366" s="14"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="26"/>
       <c r="B367" s="5"/>
       <c r="C367" s="12"/>
@@ -10971,7 +11888,7 @@
       <c r="N367" s="14"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="26"/>
       <c r="B368" s="5"/>
       <c r="C368" s="12"/>
@@ -10988,7 +11905,7 @@
       <c r="N368" s="14"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="26"/>
       <c r="B369" s="5"/>
       <c r="C369" s="12"/>
@@ -11005,7 +11922,7 @@
       <c r="N369" s="14"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="26"/>
       <c r="B370" s="5"/>
       <c r="C370" s="12"/>
@@ -11022,7 +11939,7 @@
       <c r="N370" s="14"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="26"/>
       <c r="B371" s="5"/>
       <c r="C371" s="12"/>
@@ -11039,7 +11956,7 @@
       <c r="N371" s="14"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="26"/>
       <c r="B372" s="5"/>
       <c r="C372" s="12"/>
@@ -11056,7 +11973,7 @@
       <c r="N372" s="14"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="26"/>
       <c r="B373" s="5"/>
       <c r="C373" s="12"/>
@@ -11073,7 +11990,7 @@
       <c r="N373" s="14"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="26"/>
       <c r="B374" s="5"/>
       <c r="C374" s="12"/>
@@ -11090,7 +12007,7 @@
       <c r="N374" s="14"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="26"/>
       <c r="B375" s="5"/>
       <c r="C375" s="12"/>
@@ -11107,7 +12024,7 @@
       <c r="N375" s="14"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="26"/>
       <c r="B376" s="5"/>
       <c r="C376" s="12"/>
@@ -11124,7 +12041,7 @@
       <c r="N376" s="14"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="26"/>
       <c r="B377" s="5"/>
       <c r="C377" s="12"/>
@@ -11141,7 +12058,7 @@
       <c r="N377" s="14"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="26"/>
       <c r="B378" s="5"/>
       <c r="C378" s="12"/>
@@ -11158,7 +12075,7 @@
       <c r="N378" s="14"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="26"/>
       <c r="B379" s="5"/>
       <c r="C379" s="12"/>
@@ -11175,7 +12092,7 @@
       <c r="N379" s="14"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="26"/>
       <c r="B380" s="5"/>
       <c r="C380" s="12"/>
@@ -11192,7 +12109,7 @@
       <c r="N380" s="14"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="26"/>
       <c r="B381" s="5"/>
       <c r="C381" s="12"/>
@@ -11209,7 +12126,7 @@
       <c r="N381" s="14"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="26"/>
       <c r="B382" s="5"/>
       <c r="C382" s="12"/>
@@ -11226,7 +12143,7 @@
       <c r="N382" s="14"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="26"/>
       <c r="B383" s="5"/>
       <c r="C383" s="12"/>
@@ -11243,7 +12160,7 @@
       <c r="N383" s="14"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="26"/>
       <c r="B384" s="5"/>
       <c r="C384" s="12"/>
@@ -11260,7 +12177,7 @@
       <c r="N384" s="14"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="26"/>
       <c r="B385" s="5"/>
       <c r="C385" s="12"/>
@@ -11277,7 +12194,7 @@
       <c r="N385" s="14"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="26"/>
       <c r="B386" s="5"/>
       <c r="C386" s="12"/>
@@ -11294,7 +12211,7 @@
       <c r="N386" s="14"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="26"/>
       <c r="B387" s="5"/>
       <c r="C387" s="12"/>
@@ -11311,7 +12228,7 @@
       <c r="N387" s="14"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="26"/>
       <c r="B388" s="5"/>
       <c r="C388" s="12"/>
@@ -11328,7 +12245,7 @@
       <c r="N388" s="14"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="26"/>
       <c r="B389" s="5"/>
       <c r="C389" s="12"/>
@@ -11345,7 +12262,7 @@
       <c r="N389" s="14"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="26"/>
       <c r="B390" s="5"/>
       <c r="C390" s="12"/>
@@ -11362,7 +12279,7 @@
       <c r="N390" s="14"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="26"/>
       <c r="B391" s="5"/>
       <c r="C391" s="12"/>
@@ -11379,7 +12296,7 @@
       <c r="N391" s="14"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="26"/>
       <c r="B392" s="5"/>
       <c r="C392" s="12"/>
@@ -11396,7 +12313,7 @@
       <c r="N392" s="14"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="26"/>
       <c r="B393" s="5"/>
       <c r="C393" s="12"/>
@@ -11413,7 +12330,7 @@
       <c r="N393" s="14"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="26"/>
       <c r="B394" s="5"/>
       <c r="C394" s="12"/>
@@ -11430,7 +12347,7 @@
       <c r="N394" s="14"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="26"/>
       <c r="B395" s="5"/>
       <c r="C395" s="12"/>
@@ -11447,7 +12364,7 @@
       <c r="N395" s="14"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="26"/>
       <c r="B396" s="5"/>
       <c r="C396" s="12"/>
@@ -11464,7 +12381,7 @@
       <c r="N396" s="14"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="26"/>
       <c r="B397" s="5"/>
       <c r="C397" s="12"/>
@@ -11481,7 +12398,7 @@
       <c r="N397" s="14"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="26"/>
       <c r="B398" s="5"/>
       <c r="C398" s="12"/>
@@ -11498,7 +12415,7 @@
       <c r="N398" s="14"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="26"/>
       <c r="B399" s="5"/>
       <c r="C399" s="12"/>
@@ -11515,7 +12432,7 @@
       <c r="N399" s="14"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="26"/>
       <c r="B400" s="5"/>
       <c r="C400" s="12"/>
@@ -11532,7 +12449,7 @@
       <c r="N400" s="14"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="26"/>
       <c r="B401" s="5"/>
       <c r="C401" s="12"/>
@@ -11549,7 +12466,7 @@
       <c r="N401" s="14"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="26"/>
       <c r="B402" s="5"/>
       <c r="C402" s="12"/>
@@ -11566,7 +12483,7 @@
       <c r="N402" s="14"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="26"/>
       <c r="B403" s="5"/>
       <c r="C403" s="12"/>
@@ -11583,7 +12500,7 @@
       <c r="N403" s="14"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="26"/>
       <c r="B404" s="5"/>
       <c r="C404" s="12"/>
@@ -11600,7 +12517,7 @@
       <c r="N404" s="14"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="26"/>
       <c r="B405" s="5"/>
       <c r="C405" s="12"/>
@@ -11617,7 +12534,7 @@
       <c r="N405" s="14"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="26"/>
       <c r="B406" s="5"/>
       <c r="C406" s="12"/>
@@ -11634,7 +12551,7 @@
       <c r="N406" s="14"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="26"/>
       <c r="B407" s="5"/>
       <c r="C407" s="12"/>
@@ -11651,7 +12568,7 @@
       <c r="N407" s="14"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="26"/>
       <c r="B408" s="5"/>
       <c r="C408" s="12"/>
@@ -11668,7 +12585,7 @@
       <c r="N408" s="14"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="26"/>
       <c r="B409" s="5"/>
       <c r="C409" s="12"/>
@@ -11685,7 +12602,7 @@
       <c r="N409" s="14"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="26"/>
       <c r="B410" s="5"/>
       <c r="C410" s="12"/>
@@ -11702,7 +12619,7 @@
       <c r="N410" s="14"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="26"/>
       <c r="B411" s="5"/>
       <c r="C411" s="12"/>
@@ -11719,7 +12636,7 @@
       <c r="N411" s="14"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="26"/>
       <c r="B412" s="5"/>
       <c r="C412" s="12"/>
@@ -11736,7 +12653,7 @@
       <c r="N412" s="14"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="26"/>
       <c r="B413" s="5"/>
       <c r="C413" s="12"/>
@@ -11753,7 +12670,7 @@
       <c r="N413" s="14"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="26"/>
       <c r="B414" s="5"/>
       <c r="C414" s="12"/>
@@ -11770,7 +12687,7 @@
       <c r="N414" s="14"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="26"/>
       <c r="B415" s="5"/>
       <c r="C415" s="12"/>
@@ -11787,7 +12704,7 @@
       <c r="N415" s="14"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="26"/>
       <c r="B416" s="5"/>
       <c r="C416" s="12"/>
@@ -11804,7 +12721,7 @@
       <c r="N416" s="14"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="26"/>
       <c r="B417" s="5"/>
       <c r="C417" s="12"/>
@@ -11821,7 +12738,7 @@
       <c r="N417" s="14"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="26"/>
       <c r="B418" s="5"/>
       <c r="C418" s="12"/>
@@ -11838,7 +12755,7 @@
       <c r="N418" s="14"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="26"/>
       <c r="B419" s="5"/>
       <c r="C419" s="12"/>
@@ -11855,7 +12772,7 @@
       <c r="N419" s="14"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="26"/>
       <c r="B420" s="5"/>
       <c r="C420" s="12"/>
@@ -11872,7 +12789,7 @@
       <c r="N420" s="14"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="26"/>
       <c r="B421" s="5"/>
       <c r="C421" s="12"/>
@@ -11889,7 +12806,7 @@
       <c r="N421" s="14"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="26"/>
       <c r="B422" s="5"/>
       <c r="C422" s="12"/>
@@ -11906,7 +12823,7 @@
       <c r="N422" s="14"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="26"/>
       <c r="B423" s="5"/>
       <c r="C423" s="12"/>
@@ -11923,7 +12840,7 @@
       <c r="N423" s="14"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="26"/>
       <c r="B424" s="5"/>
       <c r="C424" s="12"/>
@@ -11940,7 +12857,7 @@
       <c r="N424" s="14"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="26"/>
       <c r="B425" s="5"/>
       <c r="C425" s="12"/>
@@ -11957,7 +12874,7 @@
       <c r="N425" s="14"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="26"/>
       <c r="B426" s="5"/>
       <c r="C426" s="12"/>
@@ -11974,7 +12891,7 @@
       <c r="N426" s="14"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="26"/>
       <c r="B427" s="5"/>
       <c r="C427" s="12"/>
@@ -11991,7 +12908,7 @@
       <c r="N427" s="14"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="26"/>
       <c r="B428" s="5"/>
       <c r="C428" s="12"/>
@@ -12008,7 +12925,7 @@
       <c r="N428" s="14"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="26"/>
       <c r="B429" s="5"/>
       <c r="C429" s="12"/>
@@ -12025,7 +12942,7 @@
       <c r="N429" s="14"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="26"/>
       <c r="B430" s="5"/>
       <c r="C430" s="12"/>
@@ -12042,7 +12959,7 @@
       <c r="N430" s="14"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="26"/>
       <c r="B431" s="5"/>
       <c r="C431" s="12"/>
@@ -12059,7 +12976,7 @@
       <c r="N431" s="14"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="26"/>
       <c r="B432" s="5"/>
       <c r="C432" s="12"/>
@@ -12076,7 +12993,7 @@
       <c r="N432" s="14"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="26"/>
       <c r="B433" s="5"/>
       <c r="C433" s="12"/>
@@ -12093,7 +13010,7 @@
       <c r="N433" s="14"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="26"/>
       <c r="B434" s="5"/>
       <c r="C434" s="12"/>
@@ -12110,7 +13027,7 @@
       <c r="N434" s="14"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="26"/>
       <c r="B435" s="5"/>
       <c r="C435" s="12"/>
@@ -12127,7 +13044,7 @@
       <c r="N435" s="14"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="26"/>
       <c r="B436" s="5"/>
       <c r="C436" s="12"/>
@@ -12144,7 +13061,7 @@
       <c r="N436" s="14"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="26"/>
       <c r="B437" s="5"/>
       <c r="C437" s="12"/>
@@ -12161,7 +13078,7 @@
       <c r="N437" s="14"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="26"/>
       <c r="B438" s="5"/>
       <c r="C438" s="12"/>
@@ -12178,7 +13095,7 @@
       <c r="N438" s="14"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="26"/>
       <c r="B439" s="5"/>
       <c r="C439" s="12"/>
@@ -12195,7 +13112,7 @@
       <c r="N439" s="14"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="26"/>
       <c r="B440" s="5"/>
       <c r="C440" s="12"/>
@@ -12212,7 +13129,7 @@
       <c r="N440" s="14"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="26"/>
       <c r="B441" s="5"/>
       <c r="C441" s="12"/>
@@ -12229,7 +13146,7 @@
       <c r="N441" s="14"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="26"/>
       <c r="B442" s="5"/>
       <c r="C442" s="12"/>
@@ -12246,7 +13163,7 @@
       <c r="N442" s="14"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="26"/>
       <c r="B443" s="5"/>
       <c r="C443" s="12"/>
@@ -12263,7 +13180,7 @@
       <c r="N443" s="14"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="26"/>
       <c r="B444" s="5"/>
       <c r="C444" s="12"/>
@@ -12280,7 +13197,7 @@
       <c r="N444" s="14"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="26"/>
       <c r="B445" s="5"/>
       <c r="C445" s="12"/>
@@ -12297,7 +13214,7 @@
       <c r="N445" s="14"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="26"/>
       <c r="B446" s="5"/>
       <c r="C446" s="12"/>
@@ -12314,7 +13231,7 @@
       <c r="N446" s="14"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="26"/>
       <c r="B447" s="5"/>
       <c r="C447" s="12"/>
@@ -12331,7 +13248,7 @@
       <c r="N447" s="14"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="26"/>
       <c r="B448" s="5"/>
       <c r="C448" s="12"/>
@@ -12348,7 +13265,7 @@
       <c r="N448" s="14"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="26"/>
       <c r="B449" s="5"/>
       <c r="C449" s="12"/>
@@ -12365,7 +13282,7 @@
       <c r="N449" s="14"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="26"/>
       <c r="B450" s="5"/>
       <c r="C450" s="12"/>
@@ -12382,7 +13299,7 @@
       <c r="N450" s="14"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="26"/>
       <c r="B451" s="5"/>
       <c r="C451" s="12"/>
@@ -12399,7 +13316,7 @@
       <c r="N451" s="14"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="26"/>
       <c r="B452" s="5"/>
       <c r="C452" s="12"/>
@@ -12416,7 +13333,7 @@
       <c r="N452" s="14"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="26"/>
       <c r="B453" s="5"/>
       <c r="C453" s="12"/>
@@ -12433,7 +13350,7 @@
       <c r="N453" s="14"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="26"/>
       <c r="B454" s="5"/>
       <c r="C454" s="12"/>
@@ -12450,7 +13367,7 @@
       <c r="N454" s="14"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="26"/>
       <c r="B455" s="5"/>
       <c r="C455" s="12"/>
@@ -12467,7 +13384,7 @@
       <c r="N455" s="14"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="26"/>
       <c r="B456" s="5"/>
       <c r="C456" s="12"/>
@@ -12484,7 +13401,7 @@
       <c r="N456" s="14"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="26"/>
       <c r="B457" s="5"/>
       <c r="C457" s="12"/>
@@ -12501,7 +13418,7 @@
       <c r="N457" s="14"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="26"/>
       <c r="B458" s="5"/>
       <c r="C458" s="12"/>
@@ -12518,7 +13435,7 @@
       <c r="N458" s="14"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="26"/>
       <c r="B459" s="5"/>
       <c r="C459" s="12"/>
@@ -12535,7 +13452,7 @@
       <c r="N459" s="14"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="26"/>
       <c r="B460" s="5"/>
       <c r="C460" s="12"/>
@@ -12552,7 +13469,7 @@
       <c r="N460" s="14"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="26"/>
       <c r="B461" s="5"/>
       <c r="C461" s="12"/>
@@ -12569,7 +13486,7 @@
       <c r="N461" s="14"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="26"/>
       <c r="B462" s="5"/>
       <c r="C462" s="12"/>
@@ -12586,7 +13503,7 @@
       <c r="N462" s="14"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="26"/>
       <c r="B463" s="5"/>
       <c r="C463" s="12"/>
@@ -12603,7 +13520,7 @@
       <c r="N463" s="14"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="26"/>
       <c r="B464" s="5"/>
       <c r="C464" s="12"/>
@@ -12620,7 +13537,7 @@
       <c r="N464" s="14"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="26"/>
       <c r="B465" s="5"/>
       <c r="C465" s="12"/>
@@ -12637,7 +13554,7 @@
       <c r="N465" s="14"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="26"/>
       <c r="B466" s="5"/>
       <c r="C466" s="12"/>
@@ -12654,7 +13571,7 @@
       <c r="N466" s="14"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="26"/>
       <c r="B467" s="5"/>
       <c r="C467" s="12"/>
@@ -12671,7 +13588,7 @@
       <c r="N467" s="14"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="26"/>
       <c r="B468" s="5"/>
       <c r="C468" s="12"/>
@@ -12688,7 +13605,7 @@
       <c r="N468" s="14"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="26"/>
       <c r="B469" s="5"/>
       <c r="C469" s="12"/>
@@ -12705,7 +13622,7 @@
       <c r="N469" s="14"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="26"/>
       <c r="B470" s="5"/>
       <c r="C470" s="12"/>
@@ -12722,7 +13639,7 @@
       <c r="N470" s="14"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="26"/>
       <c r="B471" s="5"/>
       <c r="C471" s="12"/>
@@ -12739,7 +13656,7 @@
       <c r="N471" s="14"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="26"/>
       <c r="B472" s="5"/>
       <c r="C472" s="12"/>
@@ -12756,7 +13673,7 @@
       <c r="N472" s="14"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="26"/>
       <c r="B473" s="5"/>
       <c r="C473" s="12"/>
@@ -12773,7 +13690,7 @@
       <c r="N473" s="14"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="26"/>
       <c r="B474" s="5"/>
       <c r="C474" s="12"/>
@@ -12790,7 +13707,7 @@
       <c r="N474" s="14"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="26"/>
       <c r="B475" s="5"/>
       <c r="C475" s="12"/>
@@ -12807,7 +13724,7 @@
       <c r="N475" s="14"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="26"/>
       <c r="B476" s="5"/>
       <c r="C476" s="12"/>
@@ -12824,7 +13741,7 @@
       <c r="N476" s="14"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="26"/>
       <c r="B477" s="5"/>
       <c r="C477" s="12"/>
@@ -12841,7 +13758,7 @@
       <c r="N477" s="14"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="26"/>
       <c r="B478" s="5"/>
       <c r="C478" s="12"/>
@@ -12858,7 +13775,7 @@
       <c r="N478" s="14"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="26"/>
       <c r="B479" s="5"/>
       <c r="C479" s="12"/>
@@ -12875,7 +13792,7 @@
       <c r="N479" s="14"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="26"/>
       <c r="B480" s="5"/>
       <c r="C480" s="12"/>
@@ -12892,7 +13809,7 @@
       <c r="N480" s="14"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="26"/>
       <c r="B481" s="5"/>
       <c r="C481" s="12"/>
@@ -12909,7 +13826,7 @@
       <c r="N481" s="14"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="26"/>
       <c r="B482" s="5"/>
       <c r="C482" s="12"/>
@@ -12926,7 +13843,7 @@
       <c r="N482" s="14"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="26"/>
       <c r="B483" s="5"/>
       <c r="C483" s="12"/>
@@ -12943,7 +13860,7 @@
       <c r="N483" s="14"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="26"/>
       <c r="B484" s="5"/>
       <c r="C484" s="12"/>
@@ -12960,7 +13877,7 @@
       <c r="N484" s="14"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="26"/>
       <c r="B485" s="5"/>
       <c r="C485" s="12"/>
@@ -12977,7 +13894,7 @@
       <c r="N485" s="14"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="26"/>
       <c r="B486" s="5"/>
       <c r="C486" s="12"/>
@@ -12994,7 +13911,7 @@
       <c r="N486" s="14"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="26"/>
       <c r="B487" s="5"/>
       <c r="C487" s="12"/>
@@ -13011,7 +13928,7 @@
       <c r="N487" s="14"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="26"/>
       <c r="B488" s="5"/>
       <c r="C488" s="12"/>
@@ -13028,7 +13945,7 @@
       <c r="N488" s="14"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="26"/>
       <c r="B489" s="5"/>
       <c r="C489" s="12"/>
@@ -13045,7 +13962,7 @@
       <c r="N489" s="14"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="26"/>
       <c r="B490" s="5"/>
       <c r="C490" s="12"/>
@@ -13062,7 +13979,7 @@
       <c r="N490" s="14"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="26"/>
       <c r="B491" s="5"/>
       <c r="C491" s="12"/>
@@ -13079,7 +13996,7 @@
       <c r="N491" s="14"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="26"/>
       <c r="B492" s="5"/>
       <c r="C492" s="12"/>
@@ -13096,7 +14013,7 @@
       <c r="N492" s="14"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="26"/>
       <c r="B493" s="5"/>
       <c r="C493" s="12"/>
@@ -13113,7 +14030,7 @@
       <c r="N493" s="14"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="26"/>
       <c r="B494" s="5"/>
       <c r="C494" s="12"/>
@@ -13130,7 +14047,7 @@
       <c r="N494" s="14"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="26"/>
       <c r="B495" s="5"/>
       <c r="C495" s="12"/>
@@ -13147,7 +14064,7 @@
       <c r="N495" s="14"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="26"/>
       <c r="B496" s="5"/>
       <c r="C496" s="12"/>
@@ -13164,7 +14081,7 @@
       <c r="N496" s="14"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="26"/>
       <c r="B497" s="5"/>
       <c r="C497" s="12"/>
@@ -13181,7 +14098,7 @@
       <c r="N497" s="14"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="26"/>
       <c r="B498" s="5"/>
       <c r="C498" s="12"/>
@@ -13198,7 +14115,7 @@
       <c r="N498" s="14"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="26"/>
       <c r="B499" s="5"/>
       <c r="C499" s="12"/>
@@ -13215,7 +14132,7 @@
       <c r="N499" s="14"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="26"/>
       <c r="B500" s="5"/>
       <c r="C500" s="12"/>
@@ -13232,7 +14149,7 @@
       <c r="N500" s="14"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="26"/>
       <c r="B501" s="5"/>
       <c r="C501" s="12"/>
@@ -13249,7 +14166,7 @@
       <c r="N501" s="14"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="26"/>
       <c r="B502" s="5"/>
       <c r="C502" s="12"/>
@@ -13266,7 +14183,7 @@
       <c r="N502" s="14"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="26"/>
       <c r="B503" s="5"/>
       <c r="C503" s="12"/>
@@ -13283,7 +14200,7 @@
       <c r="N503" s="14"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="26"/>
       <c r="B504" s="5"/>
       <c r="C504" s="12"/>
@@ -13300,7 +14217,7 @@
       <c r="N504" s="14"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="26"/>
       <c r="B505" s="5"/>
       <c r="C505" s="12"/>
@@ -13317,7 +14234,7 @@
       <c r="N505" s="14"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="26"/>
       <c r="B506" s="5"/>
       <c r="C506" s="12"/>
@@ -13334,7 +14251,7 @@
       <c r="N506" s="14"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="26"/>
       <c r="B507" s="5"/>
       <c r="C507" s="12"/>
@@ -13351,7 +14268,7 @@
       <c r="N507" s="14"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="26"/>
       <c r="B508" s="5"/>
       <c r="C508" s="12"/>
@@ -13368,7 +14285,7 @@
       <c r="N508" s="14"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="26"/>
       <c r="B509" s="5"/>
       <c r="C509" s="12"/>
@@ -13385,7 +14302,7 @@
       <c r="N509" s="14"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="26"/>
       <c r="B510" s="5"/>
       <c r="C510" s="12"/>
@@ -13402,7 +14319,7 @@
       <c r="N510" s="14"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="26"/>
       <c r="B511" s="5"/>
       <c r="C511" s="12"/>
@@ -13419,7 +14336,7 @@
       <c r="N511" s="14"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="26"/>
       <c r="B512" s="5"/>
       <c r="C512" s="12"/>
@@ -13436,7 +14353,7 @@
       <c r="N512" s="14"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="26"/>
       <c r="B513" s="5"/>
       <c r="C513" s="12"/>
@@ -13453,7 +14370,7 @@
       <c r="N513" s="14"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="26"/>
       <c r="B514" s="5"/>
       <c r="C514" s="12"/>
@@ -13470,7 +14387,7 @@
       <c r="N514" s="14"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="26"/>
       <c r="B515" s="5"/>
       <c r="C515" s="12"/>
@@ -13487,7 +14404,7 @@
       <c r="N515" s="14"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="26"/>
       <c r="B516" s="5"/>
       <c r="C516" s="12"/>
@@ -13504,7 +14421,7 @@
       <c r="N516" s="14"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="26"/>
       <c r="B517" s="5"/>
       <c r="C517" s="12"/>
@@ -13521,7 +14438,7 @@
       <c r="N517" s="14"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="26"/>
       <c r="B518" s="5"/>
       <c r="C518" s="12"/>
@@ -13538,7 +14455,7 @@
       <c r="N518" s="14"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="26"/>
       <c r="B519" s="5"/>
       <c r="C519" s="12"/>
@@ -13555,7 +14472,7 @@
       <c r="N519" s="14"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="26"/>
       <c r="B520" s="5"/>
       <c r="C520" s="12"/>
@@ -13572,7 +14489,7 @@
       <c r="N520" s="14"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="26"/>
       <c r="B521" s="5"/>
       <c r="C521" s="12"/>
@@ -13589,7 +14506,7 @@
       <c r="N521" s="14"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="26"/>
       <c r="B522" s="5"/>
       <c r="C522" s="12"/>
@@ -13606,7 +14523,7 @@
       <c r="N522" s="14"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="26"/>
       <c r="B523" s="5"/>
       <c r="C523" s="12"/>
@@ -13623,7 +14540,7 @@
       <c r="N523" s="14"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="26"/>
       <c r="B524" s="5"/>
       <c r="C524" s="12"/>
@@ -13640,7 +14557,7 @@
       <c r="N524" s="14"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="26"/>
       <c r="B525" s="5"/>
       <c r="C525" s="12"/>
@@ -13657,7 +14574,7 @@
       <c r="N525" s="14"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="26"/>
       <c r="B526" s="5"/>
       <c r="C526" s="12"/>
@@ -13674,7 +14591,7 @@
       <c r="N526" s="14"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="26"/>
       <c r="B527" s="5"/>
       <c r="C527" s="12"/>
@@ -13691,7 +14608,7 @@
       <c r="N527" s="14"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="26"/>
       <c r="B528" s="5"/>
       <c r="C528" s="12"/>
@@ -13708,7 +14625,7 @@
       <c r="N528" s="14"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="26"/>
       <c r="B529" s="5"/>
       <c r="C529" s="12"/>
@@ -13725,7 +14642,7 @@
       <c r="N529" s="14"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="26"/>
       <c r="B530" s="5"/>
       <c r="C530" s="12"/>
@@ -13742,7 +14659,7 @@
       <c r="N530" s="14"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="26"/>
       <c r="B531" s="5"/>
       <c r="C531" s="12"/>
@@ -13759,7 +14676,7 @@
       <c r="N531" s="14"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="26"/>
       <c r="B532" s="5"/>
       <c r="C532" s="12"/>
@@ -13776,7 +14693,7 @@
       <c r="N532" s="14"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="26"/>
       <c r="B533" s="5"/>
       <c r="C533" s="12"/>
@@ -13793,7 +14710,7 @@
       <c r="N533" s="14"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="26"/>
       <c r="B534" s="5"/>
       <c r="C534" s="12"/>
@@ -13810,7 +14727,7 @@
       <c r="N534" s="14"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="26"/>
       <c r="B535" s="5"/>
       <c r="C535" s="12"/>
@@ -13827,7 +14744,7 @@
       <c r="N535" s="14"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="26"/>
       <c r="B536" s="5"/>
       <c r="C536" s="12"/>
@@ -13844,7 +14761,7 @@
       <c r="N536" s="14"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="26"/>
       <c r="B537" s="5"/>
       <c r="C537" s="12"/>
@@ -13861,7 +14778,7 @@
       <c r="N537" s="14"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="26"/>
       <c r="B538" s="5"/>
       <c r="C538" s="12"/>
@@ -13878,7 +14795,7 @@
       <c r="N538" s="14"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="26"/>
       <c r="B539" s="5"/>
       <c r="C539" s="12"/>
@@ -13895,7 +14812,7 @@
       <c r="N539" s="14"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="26"/>
       <c r="B540" s="5"/>
       <c r="C540" s="12"/>
@@ -13912,7 +14829,7 @@
       <c r="N540" s="14"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="26"/>
       <c r="B541" s="5"/>
       <c r="C541" s="12"/>
@@ -13929,7 +14846,7 @@
       <c r="N541" s="14"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="26"/>
       <c r="B542" s="5"/>
       <c r="C542" s="12"/>
@@ -13946,7 +14863,7 @@
       <c r="N542" s="14"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="26"/>
       <c r="B543" s="5"/>
       <c r="C543" s="12"/>
@@ -13963,7 +14880,7 @@
       <c r="N543" s="14"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="26"/>
       <c r="B544" s="5"/>
       <c r="C544" s="12"/>
@@ -13980,7 +14897,7 @@
       <c r="N544" s="14"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="26"/>
       <c r="B545" s="5"/>
       <c r="C545" s="12"/>
@@ -13997,7 +14914,7 @@
       <c r="N545" s="14"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="26"/>
       <c r="B546" s="5"/>
       <c r="C546" s="12"/>
@@ -14014,7 +14931,7 @@
       <c r="N546" s="14"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="26"/>
       <c r="B547" s="5"/>
       <c r="C547" s="12"/>
@@ -14031,7 +14948,7 @@
       <c r="N547" s="14"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="26"/>
       <c r="B548" s="5"/>
       <c r="C548" s="12"/>
@@ -14048,7 +14965,7 @@
       <c r="N548" s="14"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="26"/>
       <c r="B549" s="5"/>
       <c r="C549" s="12"/>
@@ -14065,7 +14982,7 @@
       <c r="N549" s="14"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="26"/>
       <c r="B550" s="5"/>
       <c r="C550" s="12"/>
@@ -14082,7 +14999,7 @@
       <c r="N550" s="14"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="26"/>
       <c r="B551" s="5"/>
       <c r="C551" s="12"/>
@@ -14099,7 +15016,7 @@
       <c r="N551" s="14"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="26"/>
       <c r="B552" s="5"/>
       <c r="C552" s="12"/>
@@ -14116,7 +15033,7 @@
       <c r="N552" s="14"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="26"/>
       <c r="B553" s="5"/>
       <c r="C553" s="12"/>
@@ -14133,7 +15050,7 @@
       <c r="N553" s="14"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="26"/>
       <c r="B554" s="5"/>
       <c r="C554" s="12"/>
@@ -14150,7 +15067,7 @@
       <c r="N554" s="14"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="26"/>
       <c r="B555" s="5"/>
       <c r="C555" s="12"/>
@@ -14167,7 +15084,7 @@
       <c r="N555" s="14"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="26"/>
       <c r="B556" s="5"/>
       <c r="C556" s="12"/>
@@ -14184,7 +15101,7 @@
       <c r="N556" s="14"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="26"/>
       <c r="B557" s="5"/>
       <c r="C557" s="12"/>
@@ -14201,7 +15118,7 @@
       <c r="N557" s="14"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="26"/>
       <c r="B558" s="5"/>
       <c r="C558" s="12"/>
@@ -14218,7 +15135,7 @@
       <c r="N558" s="14"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="26"/>
       <c r="B559" s="5"/>
       <c r="C559" s="12"/>
@@ -14235,7 +15152,7 @@
       <c r="N559" s="14"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="26"/>
       <c r="B560" s="5"/>
       <c r="C560" s="12"/>
@@ -14252,7 +15169,7 @@
       <c r="N560" s="14"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="26"/>
       <c r="B561" s="5"/>
       <c r="C561" s="12"/>
@@ -14269,7 +15186,7 @@
       <c r="N561" s="14"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="26"/>
       <c r="B562" s="5"/>
       <c r="C562" s="12"/>
@@ -14286,7 +15203,7 @@
       <c r="N562" s="14"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="26"/>
       <c r="B563" s="5"/>
       <c r="C563" s="12"/>
@@ -14303,7 +15220,7 @@
       <c r="N563" s="14"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="26"/>
       <c r="B564" s="5"/>
       <c r="C564" s="12"/>
@@ -14320,7 +15237,7 @@
       <c r="N564" s="14"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="26"/>
       <c r="B565" s="5"/>
       <c r="C565" s="12"/>
@@ -14337,7 +15254,7 @@
       <c r="N565" s="14"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="26"/>
       <c r="B566" s="5"/>
       <c r="C566" s="12"/>
@@ -14354,7 +15271,7 @@
       <c r="N566" s="14"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="26"/>
       <c r="B567" s="5"/>
       <c r="C567" s="12"/>
@@ -14371,7 +15288,7 @@
       <c r="N567" s="14"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="26"/>
       <c r="B568" s="5"/>
       <c r="C568" s="12"/>
@@ -14388,7 +15305,7 @@
       <c r="N568" s="14"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="26"/>
       <c r="B569" s="5"/>
       <c r="C569" s="12"/>
@@ -14405,7 +15322,7 @@
       <c r="N569" s="14"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="26"/>
       <c r="B570" s="5"/>
       <c r="C570" s="12"/>
@@ -14422,7 +15339,7 @@
       <c r="N570" s="14"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="26"/>
       <c r="B571" s="5"/>
       <c r="C571" s="12"/>
@@ -14439,7 +15356,7 @@
       <c r="N571" s="14"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="26"/>
       <c r="B572" s="5"/>
       <c r="C572" s="12"/>
@@ -14456,7 +15373,7 @@
       <c r="N572" s="14"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="26"/>
       <c r="B573" s="5"/>
       <c r="C573" s="12"/>
@@ -14473,7 +15390,7 @@
       <c r="N573" s="14"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="26"/>
       <c r="B574" s="5"/>
       <c r="C574" s="12"/>
@@ -14490,7 +15407,7 @@
       <c r="N574" s="14"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="26"/>
       <c r="B575" s="5"/>
       <c r="C575" s="12"/>
@@ -14507,7 +15424,7 @@
       <c r="N575" s="14"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="26"/>
       <c r="B576" s="5"/>
       <c r="C576" s="12"/>
@@ -14524,7 +15441,7 @@
       <c r="N576" s="14"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="26"/>
       <c r="B577" s="5"/>
       <c r="C577" s="12"/>
@@ -14541,7 +15458,7 @@
       <c r="N577" s="14"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="26"/>
       <c r="B578" s="5"/>
       <c r="C578" s="12"/>
@@ -14558,7 +15475,7 @@
       <c r="N578" s="14"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="26"/>
       <c r="B579" s="5"/>
       <c r="C579" s="12"/>
@@ -14575,7 +15492,7 @@
       <c r="N579" s="14"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="26"/>
       <c r="B580" s="5"/>
       <c r="C580" s="12"/>
@@ -14592,7 +15509,7 @@
       <c r="N580" s="14"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="26"/>
       <c r="B581" s="5"/>
       <c r="C581" s="12"/>
@@ -14609,7 +15526,7 @@
       <c r="N581" s="14"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="26"/>
       <c r="B582" s="5"/>
       <c r="C582" s="12"/>
@@ -14626,7 +15543,7 @@
       <c r="N582" s="14"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="26"/>
       <c r="B583" s="5"/>
       <c r="C583" s="12"/>
@@ -14643,7 +15560,7 @@
       <c r="N583" s="14"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="26"/>
       <c r="B584" s="5"/>
       <c r="C584" s="12"/>
@@ -14660,7 +15577,7 @@
       <c r="N584" s="14"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="26"/>
       <c r="B585" s="5"/>
       <c r="C585" s="12"/>
@@ -14677,7 +15594,7 @@
       <c r="N585" s="14"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="26"/>
       <c r="B586" s="5"/>
       <c r="C586" s="12"/>
@@ -14694,7 +15611,7 @@
       <c r="N586" s="14"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="26"/>
       <c r="B587" s="5"/>
       <c r="C587" s="12"/>
@@ -14711,7 +15628,7 @@
       <c r="N587" s="14"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="26"/>
       <c r="B588" s="5"/>
       <c r="C588" s="12"/>
@@ -14728,7 +15645,7 @@
       <c r="N588" s="14"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="26"/>
       <c r="B589" s="5"/>
       <c r="C589" s="12"/>
@@ -14745,7 +15662,7 @@
       <c r="N589" s="14"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="26"/>
       <c r="B590" s="5"/>
       <c r="C590" s="12"/>
@@ -14762,7 +15679,7 @@
       <c r="N590" s="14"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="26"/>
       <c r="B591" s="5"/>
       <c r="C591" s="12"/>
@@ -14779,7 +15696,7 @@
       <c r="N591" s="14"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="26"/>
       <c r="B592" s="5"/>
       <c r="C592" s="12"/>
@@ -14796,7 +15713,7 @@
       <c r="N592" s="14"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="26"/>
       <c r="B593" s="5"/>
       <c r="C593" s="12"/>
@@ -14813,7 +15730,7 @@
       <c r="N593" s="14"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="26"/>
       <c r="B594" s="5"/>
       <c r="C594" s="12"/>
@@ -14830,7 +15747,7 @@
       <c r="N594" s="14"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="26"/>
       <c r="B595" s="5"/>
       <c r="C595" s="12"/>
@@ -14847,7 +15764,7 @@
       <c r="N595" s="14"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="26"/>
       <c r="B596" s="5"/>
       <c r="C596" s="12"/>
@@ -14864,7 +15781,7 @@
       <c r="N596" s="14"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="26"/>
       <c r="B597" s="5"/>
       <c r="C597" s="12"/>
@@ -14881,7 +15798,7 @@
       <c r="N597" s="14"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="26"/>
       <c r="B598" s="5"/>
       <c r="C598" s="12"/>
@@ -14898,7 +15815,7 @@
       <c r="N598" s="14"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="26"/>
       <c r="B599" s="5"/>
       <c r="C599" s="12"/>
@@ -14915,7 +15832,7 @@
       <c r="N599" s="14"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="26"/>
       <c r="B600" s="5"/>
       <c r="C600" s="12"/>
@@ -14932,7 +15849,7 @@
       <c r="N600" s="14"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="26"/>
       <c r="B601" s="5"/>
       <c r="C601" s="12"/>
@@ -14949,7 +15866,7 @@
       <c r="N601" s="14"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="26"/>
       <c r="B602" s="5"/>
       <c r="C602" s="12"/>
@@ -14966,7 +15883,7 @@
       <c r="N602" s="14"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="26"/>
       <c r="B603" s="5"/>
       <c r="C603" s="12"/>
@@ -14983,7 +15900,7 @@
       <c r="N603" s="14"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="26"/>
       <c r="B604" s="5"/>
       <c r="C604" s="12"/>
@@ -15000,7 +15917,7 @@
       <c r="N604" s="14"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="26"/>
       <c r="B605" s="5"/>
       <c r="C605" s="12"/>
@@ -15017,7 +15934,7 @@
       <c r="N605" s="14"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="26"/>
       <c r="B606" s="5"/>
       <c r="C606" s="12"/>
@@ -15034,7 +15951,7 @@
       <c r="N606" s="14"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="26"/>
       <c r="B607" s="5"/>
       <c r="C607" s="12"/>
@@ -15051,7 +15968,7 @@
       <c r="N607" s="14"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="26"/>
       <c r="B608" s="5"/>
       <c r="C608" s="12"/>
@@ -15068,7 +15985,7 @@
       <c r="N608" s="14"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" s="26"/>
       <c r="B609" s="5"/>
       <c r="C609" s="12"/>
@@ -15085,7 +16002,7 @@
       <c r="N609" s="14"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" s="26"/>
       <c r="B610" s="5"/>
       <c r="C610" s="12"/>
@@ -15102,7 +16019,7 @@
       <c r="N610" s="14"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" s="26"/>
       <c r="B611" s="5"/>
       <c r="C611" s="12"/>
@@ -15119,7 +16036,7 @@
       <c r="N611" s="14"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" s="26"/>
       <c r="B612" s="5"/>
       <c r="C612" s="12"/>
@@ -15136,7 +16053,7 @@
       <c r="N612" s="14"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" s="26"/>
       <c r="B613" s="5"/>
       <c r="C613" s="12"/>
@@ -15153,7 +16070,7 @@
       <c r="N613" s="14"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" s="26"/>
       <c r="B614" s="5"/>
       <c r="C614" s="12"/>
@@ -15170,7 +16087,7 @@
       <c r="N614" s="14"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" s="26"/>
       <c r="B615" s="5"/>
       <c r="C615" s="12"/>
@@ -15187,7 +16104,7 @@
       <c r="N615" s="14"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" s="26"/>
       <c r="B616" s="5"/>
       <c r="C616" s="12"/>
@@ -15204,7 +16121,7 @@
       <c r="N616" s="14"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" s="26"/>
       <c r="B617" s="5"/>
       <c r="C617" s="12"/>
@@ -15221,7 +16138,7 @@
       <c r="N617" s="14"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" s="26"/>
       <c r="B618" s="5"/>
       <c r="C618" s="12"/>
@@ -15238,7 +16155,7 @@
       <c r="N618" s="14"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" s="26"/>
       <c r="B619" s="5"/>
       <c r="C619" s="12"/>
@@ -15255,7 +16172,7 @@
       <c r="N619" s="14"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" s="26"/>
       <c r="B620" s="5"/>
       <c r="C620" s="12"/>
@@ -15272,7 +16189,7 @@
       <c r="N620" s="14"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" s="26"/>
       <c r="B621" s="5"/>
       <c r="C621" s="12"/>
@@ -15289,7 +16206,7 @@
       <c r="N621" s="14"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" s="26"/>
       <c r="B622" s="5"/>
       <c r="C622" s="12"/>
@@ -15306,7 +16223,7 @@
       <c r="N622" s="14"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" s="26"/>
       <c r="B623" s="5"/>
       <c r="C623" s="12"/>
@@ -15323,360 +16240,360 @@
       <c r="N623" s="14"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="624" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="625" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="626" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="627" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="628" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="629" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="630" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="631" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="632" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="633" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="634" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="635" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="636" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="637" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="638" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="639" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="640" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="641" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="642" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="643" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="644" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="645" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="646" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="647" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="648" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="649" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="650" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="651" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="652" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="653" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="654" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="655" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="656" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="657" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="658" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="659" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="660" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="661" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="662" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="663" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="664" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="665" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="666" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="667" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="668" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="669" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="670" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="671" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="672" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="673" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="674" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="675" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="676" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="677" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="678" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="679" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="680" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="681" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="682" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="683" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="684" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="685" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="686" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="687" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="688" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="689" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="690" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="691" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="692" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="693" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="694" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="695" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="696" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="697" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="698" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="699" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="700" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="701" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="702" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="703" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="704" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="705" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="706" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="707" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="708" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="709" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="710" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="711" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="712" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="713" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="714" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="715" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="716" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="717" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="718" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="719" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="720" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="721" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="722" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="723" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="724" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="725" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="726" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="727" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="728" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="729" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="730" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="731" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="732" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="733" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="734" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="735" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="736" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="737" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="738" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="739" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="740" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="741" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="742" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="743" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="744" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="745" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="746" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="747" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="748" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="749" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="750" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="751" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="752" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="753" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="754" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="755" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="756" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="757" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="758" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="759" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="760" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="761" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="762" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="763" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="764" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="765" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="766" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="767" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="768" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="769" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="770" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="771" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="772" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="773" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="774" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="775" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="776" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="777" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="778" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="779" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="780" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="781" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="782" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="783" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="784" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="785" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="786" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="787" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="788" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="789" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="790" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="791" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="792" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="793" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="794" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="795" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="796" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="797" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="798" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="799" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="800" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="801" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="802" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="803" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="804" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="805" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="806" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="807" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="808" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="809" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="810" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="811" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="812" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="813" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="814" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="815" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="816" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="817" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="818" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="819" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="820" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="821" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="822" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="823" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="824" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="825" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="826" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="827" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="828" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="829" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="830" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="831" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="832" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="833" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="834" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="835" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="836" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="837" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="838" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="839" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="840" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="841" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="842" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="843" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="844" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="845" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="846" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="847" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="848" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="849" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="850" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="851" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="852" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="853" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="854" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="855" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="856" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="857" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="858" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="859" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="860" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="861" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="862" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="863" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="864" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="865" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="866" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="867" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="868" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="869" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="870" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="871" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="872" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="873" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="874" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="875" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="876" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="877" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="878" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="879" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="880" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="881" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="882" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="883" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="884" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="885" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="886" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="887" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="888" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="889" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="890" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="891" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="892" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="893" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="894" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="895" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="896" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="897" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="898" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="899" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="900" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="901" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="902" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="903" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="904" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="905" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="906" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="907" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="908" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="909" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="910" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="911" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="912" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="913" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="914" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="915" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="916" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="917" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="918" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="919" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="920" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="921" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="922" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="923" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="924" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="925" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="926" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="927" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="928" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="929" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="930" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="931" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="932" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="933" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="934" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="935" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="936" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="937" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="938" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="939" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="940" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="941" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="942" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="943" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="944" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="945" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="946" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="947" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="948" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="949" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="950" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="951" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="952" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="953" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="954" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="955" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="956" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="957" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="958" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="959" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="960" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="961" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="962" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="963" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="964" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="965" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="966" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="967" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="968" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="969" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="970" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="971" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="972" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="973" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="974" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="975" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15684,25 +16601,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D673" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D673" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C675" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C675" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,15 +47,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2014,6 +2014,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2027,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2307,8 +2313,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2325,6 +2438,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2645,7 +2894,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2826,55 +3075,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3199,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3290,24 +3590,21 @@
         <v>565</v>
       </c>
       <c r="AA1" t="s">
-        <v>595</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="AF1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3340,7 +3637,7 @@
         <v>439</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>649</v>
       </c>
       <c r="K2" t="s">
         <v>563</v>
@@ -3391,24 +3688,21 @@
         <v>569</v>
       </c>
       <c r="AA2" t="s">
-        <v>603</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="AF2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG2" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3438,7 +3732,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>344</v>
@@ -3483,24 +3777,21 @@
         <v>570</v>
       </c>
       <c r="AA3" t="s">
-        <v>604</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="AE3" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3527,7 +3818,7 @@
         <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
@@ -3572,24 +3863,21 @@
         <v>571</v>
       </c>
       <c r="AA4" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="AB4" t="s">
-        <v>548</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="AF4" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3616,7 +3904,7 @@
         <v>444</v>
       </c>
       <c r="J5" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="K5" t="s">
         <v>346</v>
@@ -3649,24 +3937,21 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="AB5" t="s">
-        <v>542</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>559</v>
       </c>
       <c r="AD5" t="s">
-        <v>559</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AF5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3693,7 +3978,7 @@
         <v>437</v>
       </c>
       <c r="J6" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="K6" t="s">
         <v>564</v>
@@ -3723,24 +4008,21 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
-        <v>607</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
       <c r="AC6" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3760,6 +4042,9 @@
       <c r="I7" t="s">
         <v>436</v>
       </c>
+      <c r="J7" t="s">
+        <v>546</v>
+      </c>
       <c r="K7" t="s">
         <v>343</v>
       </c>
@@ -3788,24 +4073,21 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
-        <v>608</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="AC7" t="s">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF7" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG7" t="s">
         <v>523</v>
       </c>
     </row>
@@ -3853,24 +4135,21 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
-        <v>609</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AF8" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG8" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3915,18 +4194,15 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
       <c r="AD9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3962,18 +4238,15 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB10" t="s">
         <v>252</v>
       </c>
+      <c r="AC10" t="s">
+        <v>560</v>
+      </c>
       <c r="AD10" t="s">
-        <v>560</v>
-      </c>
-      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3982,7 +4255,7 @@
         <v>342</v>
       </c>
       <c r="F11" t="s">
-        <v>541</v>
+        <v>648</v>
       </c>
       <c r="H11" t="s">
         <v>347</v>
@@ -4006,15 +4279,12 @@
         <v>602</v>
       </c>
       <c r="AA11" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4023,7 +4293,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
         <v>269</v>
@@ -4047,15 +4317,12 @@
         <v>244</v>
       </c>
       <c r="AA12" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4064,7 +4331,7 @@
         <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H13" t="s">
         <v>258</v>
@@ -4088,15 +4355,12 @@
         <v>245</v>
       </c>
       <c r="AA13" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4105,7 +4369,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
         <v>311</v>
@@ -4126,15 +4390,12 @@
         <v>552</v>
       </c>
       <c r="AA14" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4143,7 +4404,7 @@
         <v>503</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>259</v>
@@ -4164,15 +4425,12 @@
         <v>250</v>
       </c>
       <c r="AA15" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB15" t="s">
         <v>572</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4181,7 +4439,7 @@
         <v>468</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>260</v>
@@ -4202,15 +4460,12 @@
         <v>246</v>
       </c>
       <c r="AA16" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB16" t="s">
         <v>553</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4219,7 +4474,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
         <v>312</v>
@@ -4234,15 +4489,12 @@
         <v>247</v>
       </c>
       <c r="AA17" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>456</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4251,7 +4503,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -4266,12 +4518,9 @@
         <v>248</v>
       </c>
       <c r="AA18" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4280,7 +4529,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>596</v>
+        <v>406</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -4289,12 +4538,9 @@
         <v>445</v>
       </c>
       <c r="AA19" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB19" t="s">
         <v>493</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>485</v>
       </c>
     </row>
@@ -4303,7 +4549,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -4312,12 +4558,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4326,7 +4569,7 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -4335,12 +4578,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4349,7 +4589,7 @@
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>598</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -4358,12 +4598,9 @@
         <v>545</v>
       </c>
       <c r="AA22" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4372,7 +4609,7 @@
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -4381,12 +4618,9 @@
         <v>462</v>
       </c>
       <c r="AA23" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4395,7 +4629,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -4404,12 +4638,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB24" t="s">
         <v>474</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4418,7 +4649,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>599</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -4427,12 +4658,9 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4441,7 +4669,7 @@
         <v>565</v>
       </c>
       <c r="F26" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -4450,21 +4678,18 @@
         <v>601</v>
       </c>
       <c r="AA26" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB26" t="s">
         <v>533</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>595</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>529</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
@@ -4473,21 +4698,18 @@
         <v>514</v>
       </c>
       <c r="AA27" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
@@ -4496,18 +4718,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
@@ -4516,18 +4735,15 @@
         <v>425</v>
       </c>
       <c r="AA29" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
@@ -4536,18 +4752,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>438</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -4556,187 +4769,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
       <c r="F33" t="s">
-        <v>460</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
         <v>499</v>
       </c>
       <c r="AA34" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB36" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>530</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>600</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>600</v>
+      </c>
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4744,7 +4933,7 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4752,7 +4941,7 @@
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4760,7 +4949,7 @@
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4768,7 +4957,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4776,7 +4965,7 @@
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4784,7 +4973,7 @@
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4792,7 +4981,7 @@
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4800,7 +4989,7 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4808,7 +4997,7 @@
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4816,7 +5005,7 @@
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4824,7 +5013,7 @@
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4832,7 +5021,7 @@
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4840,7 +5029,7 @@
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4848,7 +5037,7 @@
       <c r="H59" t="s">
         <v>531</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>458</v>
       </c>
     </row>
@@ -4856,7 +5045,7 @@
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4864,7 +5053,7 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4872,7 +5061,7 @@
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4880,7 +5069,7 @@
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4888,7 +5077,7 @@
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4896,7 +5085,7 @@
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4904,7 +5093,7 @@
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4912,7 +5101,7 @@
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4920,7 +5109,7 @@
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4928,7 +5117,7 @@
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4936,7 +5125,7 @@
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4944,7 +5133,7 @@
       <c r="H71" t="s">
         <v>518</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4952,7 +5141,7 @@
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4960,7 +5149,7 @@
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4968,7 +5157,7 @@
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>431</v>
       </c>
     </row>
@@ -4976,7 +5165,7 @@
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4984,7 +5173,7 @@
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4992,7 +5181,7 @@
       <c r="H77" t="s">
         <v>500</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5000,7 +5189,7 @@
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5008,7 +5197,7 @@
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>640</v>
       </c>
     </row>
@@ -5016,7 +5205,7 @@
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5024,7 +5213,7 @@
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5032,7 +5221,7 @@
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5040,7 +5229,7 @@
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5048,7 +5237,7 @@
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5056,7 +5245,7 @@
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5064,7 +5253,7 @@
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5072,7 +5261,7 @@
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5080,7 +5269,7 @@
       <c r="H88" t="s">
         <v>519</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5088,7 +5277,7 @@
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5096,7 +5285,7 @@
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5104,7 +5293,7 @@
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5112,7 +5301,7 @@
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>551</v>
       </c>
     </row>
@@ -5120,7 +5309,7 @@
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5128,7 +5317,7 @@
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5136,7 +5325,7 @@
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5144,7 +5333,7 @@
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5152,7 +5341,7 @@
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>537</v>
       </c>
     </row>
@@ -5160,272 +5349,272 @@
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>647</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="650">
   <si>
     <t>description</t>
   </si>
@@ -2027,7 +2027,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2420,8 +2420,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2438,6 +2652,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2894,7 +3380,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3126,55 +3612,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="67" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -29,12 +29,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="654">
   <si>
     <t>description</t>
   </si>
@@ -2020,6 +2020,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2039,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="95" x14ac:knownFonts="1">
+  <fonts count="129" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2634,8 +2646,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2652,6 +2878,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3380,7 +3878,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3714,55 +4212,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="101" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4246,7 +4846,7 @@
         <v>471</v>
       </c>
       <c r="Q2" t="s">
-        <v>408</v>
+        <v>651</v>
       </c>
       <c r="R2" t="s">
         <v>421</v>
@@ -4340,6 +4940,9 @@
       <c r="P3" t="s">
         <v>472</v>
       </c>
+      <c r="Q3" t="s">
+        <v>652</v>
+      </c>
       <c r="R3" t="s">
         <v>422</v>
       </c>
@@ -4426,6 +5029,9 @@
       <c r="P4" t="s">
         <v>473</v>
       </c>
+      <c r="Q4" t="s">
+        <v>653</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4637,7 +5243,7 @@
         <v>343</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="N7" t="s">
         <v>310</v>
@@ -4699,7 +5305,7 @@
         <v>520</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4758,7 +5364,7 @@
         <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4808,7 +5414,7 @@
         <v>561</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4852,7 +5458,7 @@
         <v>562</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>463</v>
@@ -4890,7 +5496,7 @@
         <v>441</v>
       </c>
       <c r="L12" t="s">
-        <v>496</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>521</v>
@@ -4928,7 +5534,7 @@
         <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>381</v>
+        <v>496</v>
       </c>
       <c r="N13" t="s">
         <v>427</v>
@@ -4966,7 +5572,7 @@
         <v>318</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="N14" t="s">
         <v>464</v>
@@ -5001,7 +5607,7 @@
         <v>319</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5036,7 +5642,7 @@
         <v>320</v>
       </c>
       <c r="L16" t="s">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>532</v>
@@ -5068,7 +5674,7 @@
         <v>312</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5097,7 +5703,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5123,7 +5729,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>493</v>
@@ -5143,7 +5749,7 @@
         <v>291</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -5163,7 +5769,7 @@
         <v>292</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -5183,7 +5789,7 @@
         <v>293</v>
       </c>
       <c r="L22" t="s">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -5203,7 +5809,7 @@
         <v>294</v>
       </c>
       <c r="L23" t="s">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -5223,7 +5829,7 @@
         <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>462</v>
       </c>
       <c r="AA24" t="s">
         <v>474</v>
@@ -5243,7 +5849,7 @@
         <v>274</v>
       </c>
       <c r="L25" t="s">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -5263,7 +5869,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>601</v>
+        <v>383</v>
       </c>
       <c r="AA26" t="s">
         <v>533</v>
@@ -5283,7 +5889,7 @@
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -5303,7 +5909,7 @@
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -5320,7 +5926,7 @@
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -5337,7 +5943,7 @@
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -5354,7 +5960,7 @@
         <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>322</v>
@@ -5369,6 +5975,9 @@
       </c>
       <c r="H32" t="s">
         <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -34,12 +34,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5585" uniqueCount="660">
   <si>
     <t>description</t>
   </si>
@@ -2032,6 +2032,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2057,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="129" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2860,8 +2878,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2878,6 +3003,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3878,7 +4139,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4314,55 +4575,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="115" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4846,7 +5158,7 @@
         <v>471</v>
       </c>
       <c r="Q2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="R2" t="s">
         <v>421</v>
@@ -4941,7 +5253,7 @@
         <v>472</v>
       </c>
       <c r="Q3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="R3" t="s">
         <v>422</v>
@@ -5030,7 +5342,7 @@
         <v>473</v>
       </c>
       <c r="Q4" t="s">
-        <v>653</v>
+        <v>408</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5112,6 +5424,9 @@
       <c r="O5" t="s">
         <v>515</v>
       </c>
+      <c r="Q5" t="s">
+        <v>656</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5546,7 +5861,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>245</v>
+        <v>657</v>
       </c>
       <c r="AA13" t="s">
         <v>321</v>
@@ -5581,7 +5896,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>552</v>
+        <v>245</v>
       </c>
       <c r="AA14" t="s">
         <v>100</v>
@@ -5616,7 +5931,7 @@
         <v>491</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
+        <v>552</v>
       </c>
       <c r="AA15" t="s">
         <v>572</v>
@@ -5651,7 +5966,7 @@
         <v>492</v>
       </c>
       <c r="S16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA16" t="s">
         <v>553</v>
@@ -5680,7 +5995,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA17" t="s">
         <v>101</v>
@@ -5709,7 +6024,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA18" t="s">
         <v>73</v>
@@ -5731,6 +6046,9 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
+      <c r="S19" t="s">
+        <v>658</v>
+      </c>
       <c r="AA19" t="s">
         <v>493</v>
       </c>
@@ -5751,6 +6069,9 @@
       <c r="L20" t="s">
         <v>445</v>
       </c>
+      <c r="S20" t="s">
+        <v>248</v>
+      </c>
       <c r="AA20" t="s">
         <v>102</v>
       </c>
@@ -5770,6 +6091,9 @@
       </c>
       <c r="L21" t="s">
         <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>659</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -21,12 +21,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -47,15 +47,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5585" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="697">
   <si>
     <t>description</t>
   </si>
@@ -2050,6 +2052,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2985,8 +3098,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3003,6 +3223,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4139,7 +4495,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4677,6 +5033,57 @@
     <xf numFmtId="0" fontId="145" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="146" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
@@ -4999,7 +5406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5099,12 +5506,18 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5197,12 +5610,18 @@
         <v>172</v>
       </c>
       <c r="AD2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5289,12 +5708,18 @@
         <v>173</v>
       </c>
       <c r="AD3" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5378,12 +5803,18 @@
         <v>174</v>
       </c>
       <c r="AD4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5454,13 +5885,16 @@
       <c r="AC5" t="s">
         <v>559</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5525,13 +5959,16 @@
       <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5590,13 +6027,16 @@
       <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5614,7 +6054,7 @@
         <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>682</v>
       </c>
       <c r="K8" t="s">
         <v>520</v>
@@ -5652,13 +6092,16 @@
       <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5676,7 +6119,7 @@
         <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5708,10 +6151,13 @@
       <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5726,7 +6172,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>561</v>
+        <v>324</v>
       </c>
       <c r="L10" t="s">
         <v>495</v>
@@ -5752,10 +6198,10 @@
       <c r="AC10" t="s">
         <v>560</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5770,7 +6216,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
@@ -5790,10 +6236,10 @@
       <c r="AA11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5808,7 +6254,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -5828,10 +6274,10 @@
       <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5846,7 +6292,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="L13" t="s">
         <v>496</v>
@@ -5866,10 +6312,10 @@
       <c r="AA13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5884,7 +6330,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>381</v>
@@ -5901,10 +6347,10 @@
       <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5919,7 +6365,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -5936,10 +6382,10 @@
       <c r="AA15" t="s">
         <v>572</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5954,7 +6400,7 @@
         <v>260</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -5971,10 +6417,10 @@
       <c r="AA16" t="s">
         <v>553</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5988,6 +6434,9 @@
       <c r="H17" t="s">
         <v>312</v>
       </c>
+      <c r="I17" t="s">
+        <v>320</v>
+      </c>
       <c r="L17" t="s">
         <v>497</v>
       </c>
@@ -6000,10 +6449,10 @@
       <c r="AA17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>456</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6017,6 +6466,9 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
+      <c r="I18" t="s">
+        <v>683</v>
+      </c>
       <c r="L18" t="s">
         <v>79</v>
       </c>
@@ -6029,7 +6481,7 @@
       <c r="AA18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6038,7 +6490,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>662</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -6052,7 +6504,7 @@
       <c r="AA19" t="s">
         <v>493</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6061,7 +6513,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -6075,7 +6527,7 @@
       <c r="AA20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6084,7 +6536,7 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>597</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -6098,7 +6550,7 @@
       <c r="AA21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6107,7 +6559,7 @@
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -6118,7 +6570,7 @@
       <c r="AA22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6127,7 +6579,7 @@
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>597</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -6138,7 +6590,7 @@
       <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6147,7 +6599,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>598</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -6158,7 +6610,7 @@
       <c r="AA24" t="s">
         <v>474</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6167,7 +6619,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -6178,7 +6630,7 @@
       <c r="AA25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6187,18 +6639,18 @@
         <v>565</v>
       </c>
       <c r="F26" t="s">
-        <v>599</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>664</v>
       </c>
       <c r="L26" t="s">
         <v>383</v>
       </c>
       <c r="AA26" t="s">
-        <v>533</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH26" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6207,18 +6659,18 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>529</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>665</v>
       </c>
       <c r="L27" t="s">
         <v>601</v>
       </c>
       <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>533</v>
+      </c>
+      <c r="AH27" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6227,16 +6679,16 @@
         <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>599</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
         <v>514</v>
       </c>
       <c r="AA28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -6244,898 +6696,959 @@
         <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>316</v>
+        <v>529</v>
       </c>
       <c r="H29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="AA29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>660</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
         <v>425</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>661</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>316</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" t="s">
+        <v>438</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>460</v>
-      </c>
-      <c r="H34" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>461</v>
+        <v>222</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="H36" t="s">
-        <v>325</v>
+        <v>499</v>
       </c>
       <c r="AA36" t="s">
-        <v>534</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="H37" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="AA37" t="s">
-        <v>115</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>63</v>
+        <v>407</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="AA38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA39" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AA40" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AA41" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="AA42" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>530</v>
+        <v>666</v>
       </c>
       <c r="AA43" t="s">
-        <v>543</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s">
-        <v>384</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>600</v>
       </c>
-      <c r="H45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA47" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="AA48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="AA49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AA50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AA51" t="s">
-        <v>573</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="AA52" t="s">
-        <v>209</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="AA53" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>348</v>
+        <v>667</v>
       </c>
       <c r="AA54" t="s">
-        <v>522</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>326</v>
+        <v>668</v>
       </c>
       <c r="AA55" t="s">
-        <v>124</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>263</v>
+        <v>669</v>
       </c>
       <c r="AA56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>287</v>
+        <v>670</v>
       </c>
       <c r="AA57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="AA58" t="s">
-        <v>475</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>531</v>
+        <v>360</v>
       </c>
       <c r="AA59" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AA60" t="s">
-        <v>127</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="AA61" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="AA62" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="AA63" t="s">
-        <v>128</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AA64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>305</v>
+        <v>531</v>
       </c>
       <c r="AA65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="AA66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>362</v>
+        <v>671</v>
       </c>
       <c r="AA67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>340</v>
+        <v>672</v>
       </c>
       <c r="AA68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>308</v>
+        <v>673</v>
       </c>
       <c r="AA69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="AA70" t="s">
-        <v>430</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>518</v>
+        <v>674</v>
       </c>
       <c r="AA71" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>309</v>
+        <v>675</v>
       </c>
       <c r="AA72" t="s">
-        <v>210</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="AA73" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AA74" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="AA75" t="s">
-        <v>135</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="AA76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>500</v>
+        <v>362</v>
       </c>
       <c r="AA77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AA79" t="s">
-        <v>640</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AA80" t="s">
-        <v>193</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>286</v>
+        <v>518</v>
       </c>
       <c r="AA81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="AA82" t="s">
-        <v>443</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="AA83" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>265</v>
+        <v>676</v>
       </c>
       <c r="AA84" t="s">
-        <v>139</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>276</v>
+        <v>677</v>
       </c>
       <c r="AA85" t="s">
-        <v>140</v>
+        <v>685</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="AA86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>271</v>
+        <v>500</v>
       </c>
       <c r="AA87" t="s">
-        <v>487</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>519</v>
+        <v>339</v>
       </c>
       <c r="AA88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AA89" t="s">
-        <v>143</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>283</v>
+        <v>678</v>
       </c>
       <c r="AA90" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>267</v>
+        <v>679</v>
       </c>
       <c r="AA91" t="s">
-        <v>476</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AA92" t="s">
-        <v>551</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AA93" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="AA94" t="s">
-        <v>442</v>
+        <v>551</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AA95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="AA96" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AA97" t="s">
-        <v>537</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>641</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>642</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>501</v>
+        <v>641</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>145</v>
+        <v>642</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>146</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>147</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>555</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>149</v>
+        <v>555</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>556</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>151</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>557</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>157</v>
+        <v>557</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>574</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>161</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>643</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>558</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>164</v>
+        <v>643</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>165</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>644</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>645</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>647</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_Iteration_Dynamic_DataSheet2.xlsx
@@ -22,42 +22,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7009" uniqueCount="783">
   <si>
     <t>description</t>
   </si>
@@ -2163,6 +2166,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2431,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="163" x14ac:knownFonts="1">
+  <fonts count="180" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3205,8 +3466,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="244">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3223,6 +3591,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4495,7 +4999,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4982,106 +5486,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="152" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5406,7 +5961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5437,87 +5992,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>698</v>
+      </c>
+      <c r="O1" t="s">
         <v>328</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>503</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>468</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>192</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>699</v>
+      </c>
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>235</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>387</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>403</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>404</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>349</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>388</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>565</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>660</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>661</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>405</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5541,87 +6108,99 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>700</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>439</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>649</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>563</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>310</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" t="s">
         <v>375</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>426</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>504</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>471</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>654</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>722</v>
+      </c>
+      <c r="U2" t="s">
         <v>421</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>249</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>567</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>389</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>410</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>411</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>372</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>398</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>569</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI2" t="s">
         <v>689</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>179</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>423</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5642,84 +6221,96 @@
         <v>450</v>
       </c>
       <c r="G3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H3" t="s">
         <v>357</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>344</v>
       </c>
-      <c r="L3" t="s">
-        <v>336</v>
-      </c>
       <c r="M3" t="s">
+        <v>708</v>
+      </c>
+      <c r="N3" t="s">
+        <v>709</v>
+      </c>
+      <c r="O3" t="s">
         <v>329</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>505</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>472</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>655</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>723</v>
+      </c>
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>236</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>568</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>390</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>412</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>373</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>399</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>570</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
-        <v>687</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>779</v>
+      </c>
+      <c r="AI3" t="s">
         <v>690</v>
       </c>
-      <c r="AF3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>780</v>
+      </c>
+      <c r="AK3" t="s">
         <v>180</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5737,84 +6328,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>702</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>378</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>440</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>469</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>345</v>
       </c>
-      <c r="L4" t="s">
-        <v>547</v>
-      </c>
       <c r="M4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" t="s">
+        <v>379</v>
+      </c>
+      <c r="O4" t="s">
         <v>330</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>506</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>473</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>408</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>724</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>237</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>213</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>391</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>413</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>350</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>400</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>571</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE4" t="s">
         <v>548</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AI4" t="s">
         <v>691</v>
       </c>
-      <c r="AF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK4" t="s">
         <v>415</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5832,69 +6435,84 @@
         <v>451</v>
       </c>
       <c r="G5" t="s">
+        <v>703</v>
+      </c>
+      <c r="H5" t="s">
         <v>424</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>536</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>444</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>470</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>346</v>
       </c>
-      <c r="L5" t="s">
-        <v>234</v>
+      <c r="M5" t="s">
+        <v>547</v>
       </c>
       <c r="N5" t="s">
+        <v>710</v>
+      </c>
+      <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>515</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>656</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>572</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>238</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>214</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>392</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>414</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>351</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE5" t="s">
         <v>542</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>559</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>687</v>
+      </c>
+      <c r="AI5" t="s">
         <v>692</v>
       </c>
-      <c r="AF5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK5" t="s">
         <v>416</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5912,69 +6530,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>704</v>
+      </c>
+      <c r="H6" t="s">
         <v>494</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>331</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>437</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>517</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>564</v>
       </c>
-      <c r="L6" t="s">
-        <v>455</v>
+      <c r="M6" t="s">
+        <v>234</v>
       </c>
       <c r="N6" t="s">
+        <v>711</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>510</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>553</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>239</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>215</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>393</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>353</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>434</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AI6" t="s">
         <v>693</v>
       </c>
-      <c r="AF6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK6" t="s">
         <v>417</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>697</v>
       </c>
       <c r="B7" t="s">
         <v>369</v>
@@ -5982,67 +6615,79 @@
       <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>705</v>
+      </c>
+      <c r="I7" t="s">
         <v>379</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>436</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>546</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>343</v>
       </c>
-      <c r="L7" t="s">
-        <v>650</v>
+      <c r="M7" t="s">
+        <v>455</v>
       </c>
       <c r="N7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" t="s">
         <v>310</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>511</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>240</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>216</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>394</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>352</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>435</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>694</v>
       </c>
-      <c r="AF7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>781</v>
+      </c>
+      <c r="AK7" t="s">
         <v>418</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>370</v>
@@ -6050,64 +6695,73 @@
       <c r="F8" t="s">
         <v>313</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>358</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>682</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>520</v>
       </c>
-      <c r="L8" t="s">
-        <v>70</v>
+      <c r="M8" t="s">
+        <v>650</v>
       </c>
       <c r="N8" t="s">
+        <v>712</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>512</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>725</v>
+      </c>
+      <c r="U8" t="s">
         <v>89</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>382</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>395</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>354</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>695</v>
       </c>
-      <c r="AF8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK8" t="s">
         <v>419</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>371</v>
@@ -6115,1541 +6769,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>359</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>323</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>713</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>516</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>409</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>396</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>355</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>696</v>
       </c>
-      <c r="AF9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL9" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>310</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>301</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>324</v>
       </c>
-      <c r="L10" t="s">
-        <v>495</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>714</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>507</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>726</v>
+      </c>
+      <c r="U10" t="s">
         <v>428</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>243</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>397</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE10" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>560</v>
       </c>
-      <c r="AF10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>648</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>347</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>561</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
+      <c r="M11" t="s">
+        <v>495</v>
       </c>
       <c r="N11" t="s">
+        <v>715</v>
+      </c>
+      <c r="P11" t="s">
         <v>463</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>508</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>493</v>
+      </c>
+      <c r="U11" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>602</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE11" t="s">
         <v>253</v>
       </c>
-      <c r="AF11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
         <v>541</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>269</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>562</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
       <c r="N12" t="s">
+        <v>716</v>
+      </c>
+      <c r="P12" t="s">
         <v>521</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>566</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>727</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>244</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE12" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>314</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>258</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>441</v>
       </c>
-      <c r="L13" t="s">
-        <v>496</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>717</v>
+      </c>
+      <c r="P13" t="s">
         <v>427</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>509</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>728</v>
+      </c>
+      <c r="U13" t="s">
         <v>92</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>657</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE13" t="s">
         <v>321</v>
       </c>
-      <c r="AF13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL13" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>698</v>
       </c>
       <c r="F14" t="s">
         <v>336</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>311</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>317</v>
       </c>
-      <c r="L14" t="s">
-        <v>381</v>
+      <c r="M14" t="s">
+        <v>496</v>
       </c>
       <c r="N14" t="s">
+        <v>718</v>
+      </c>
+      <c r="P14" t="s">
         <v>464</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>729</v>
+      </c>
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>245</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE14" t="s">
         <v>100</v>
       </c>
-      <c r="AF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>782</v>
+      </c>
+      <c r="AL14" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>328</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>259</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>318</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>381</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>719</v>
+      </c>
+      <c r="P15" t="s">
+        <v>721</v>
+      </c>
+      <c r="T15" t="s">
+        <v>730</v>
+      </c>
+      <c r="U15" t="s">
         <v>491</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>552</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE15" t="s">
         <v>572</v>
       </c>
-      <c r="AF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>260</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>319</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>532</v>
-      </c>
-      <c r="R16" t="s">
+        <v>720</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>731</v>
+      </c>
+      <c r="U16" t="s">
         <v>492</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>250</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE16" t="s">
         <v>553</v>
       </c>
-      <c r="AF16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
         <v>376</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>312</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>320</v>
       </c>
-      <c r="L17" t="s">
-        <v>497</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>532</v>
+      </c>
+      <c r="T17" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
         <v>246</v>
       </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>456</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>767</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>468</v>
       </c>
       <c r="F18" t="s">
         <v>377</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>87</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>683</v>
       </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>497</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>732</v>
+      </c>
+      <c r="V18" t="s">
         <v>247</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE18" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL18" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>662</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>733</v>
+      </c>
+      <c r="V19" t="s">
         <v>658</v>
       </c>
-      <c r="AA19" t="s">
-        <v>493</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>768</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL19" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>699</v>
       </c>
       <c r="F20" t="s">
         <v>663</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>291</v>
       </c>
-      <c r="L20" t="s">
-        <v>445</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>734</v>
+      </c>
+      <c r="V20" t="s">
         <v>248</v>
       </c>
-      <c r="AA20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL20" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>406</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>292</v>
       </c>
-      <c r="L21" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>445</v>
+      </c>
+      <c r="T21" t="s">
+        <v>735</v>
+      </c>
+      <c r="V21" t="s">
         <v>659</v>
       </c>
-      <c r="AA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>769</v>
+      </c>
+      <c r="AL21" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
         <v>596</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>293</v>
       </c>
-      <c r="L22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>597</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>294</v>
       </c>
-      <c r="L23" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL23" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="F24" t="s">
         <v>598</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>285</v>
       </c>
-      <c r="L24" t="s">
-        <v>462</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>474</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>545</v>
+      </c>
+      <c r="T24" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>274</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>462</v>
+      </c>
+      <c r="T25" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>565</v>
+        <v>404</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>664</v>
       </c>
-      <c r="L26" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>474</v>
+      </c>
+      <c r="AL26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="F27" t="s">
         <v>251</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>665</v>
       </c>
-      <c r="L27" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>383</v>
+      </c>
+      <c r="T27" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>388</v>
       </c>
       <c r="F28" t="s">
         <v>599</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="L28" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>107</v>
+      <c r="M28" t="s">
+        <v>601</v>
+      </c>
+      <c r="T28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>565</v>
       </c>
       <c r="F29" t="s">
         <v>529</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>277</v>
       </c>
-      <c r="L29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>108</v>
+      <c r="M29" t="s">
+        <v>514</v>
+      </c>
+      <c r="T29" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>660</v>
+        <v>595</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>261</v>
       </c>
-      <c r="L30" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>109</v>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="T30" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>661</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
         <v>316</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>278</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>110</v>
+      <c r="M31" t="s">
+        <v>425</v>
+      </c>
+      <c r="T31" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>279</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>322</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>438</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>212</v>
       </c>
-      <c r="AA33" t="s">
-        <v>111</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>660</v>
       </c>
       <c r="F34" t="s">
         <v>221</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>270</v>
       </c>
-      <c r="AA34" t="s">
-        <v>112</v>
+      <c r="T34" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>661</v>
+      </c>
       <c r="F35" t="s">
         <v>222</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>280</v>
       </c>
-      <c r="AA35" t="s">
-        <v>113</v>
+      <c r="T35" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" t="s">
         <v>460</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>499</v>
       </c>
-      <c r="AA36" t="s">
-        <v>114</v>
+      <c r="T36" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
       <c r="F37" t="s">
         <v>461</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>255</v>
       </c>
-      <c r="AA37" t="s">
-        <v>534</v>
+      <c r="T37" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
       <c r="F38" t="s">
         <v>407</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>325</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
+      <c r="T38" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>302</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
+      <c r="T39" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>256</v>
       </c>
-      <c r="AA40" t="s">
-        <v>206</v>
+      <c r="T40" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>303</v>
       </c>
-      <c r="AA41" t="s">
-        <v>117</v>
+      <c r="T41" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>262</v>
       </c>
-      <c r="AA42" t="s">
-        <v>333</v>
+      <c r="T42" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>666</v>
       </c>
-      <c r="AA43" t="s">
-        <v>429</v>
+      <c r="T43" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>76</v>
       </c>
-      <c r="AA44" t="s">
-        <v>543</v>
+      <c r="T44" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>208</v>
       </c>
-      <c r="AA45" t="s">
-        <v>384</v>
+      <c r="T45" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>530</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
+      <c r="T46" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>600</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>284</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>295</v>
+      </c>
+      <c r="T48" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>296</v>
+      </c>
+      <c r="T49" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>338</v>
+      </c>
+      <c r="T50" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>337</v>
+      </c>
+      <c r="T51" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE56" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>667</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE59" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE64" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE65" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE67" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE68" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE71" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>672</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE75" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE76" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE77" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE79" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE80" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE82" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE85" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>518</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE88" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE89" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE90" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE91" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE92" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE94" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE98" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE99" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE102" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE105" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE106" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE109" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE110" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE111" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE112" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE113" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
